--- a/3_Component_Results/DOMUSE/Data/naive_err/AR2_50_9_qoq_errors_first_eval.xlsx
+++ b/3_Component_Results/DOMUSE/Data/naive_err/AR2_50_9_qoq_errors_first_eval.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Q0</t>
   </si>
@@ -26,18 +26,6 @@
   </si>
   <si>
     <t>Q3</t>
-  </si>
-  <si>
-    <t>Q4</t>
-  </si>
-  <si>
-    <t>Q5</t>
-  </si>
-  <si>
-    <t>Q6</t>
-  </si>
-  <si>
-    <t>Q7</t>
   </si>
   <si>
     <t>2022-01-01 00:00:00_diff</t>
@@ -440,13 +428,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -459,308 +447,176 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="B2">
+        <v>-1.478449417526166</v>
+      </c>
+      <c r="C2">
+        <v>-0.5192920885908771</v>
+      </c>
+      <c r="D2">
+        <v>-0.1460320064541725</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="B3">
+        <v>-0.7424314425956271</v>
+      </c>
+      <c r="C3">
+        <v>-0.1301388846209565</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="B4">
+        <v>-0.1894384217185212</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="1" t="s">
+      <c r="B5">
+        <v>1.250378864491863</v>
+      </c>
+      <c r="C5">
+        <v>1.437568000530804</v>
+      </c>
+      <c r="D5">
+        <v>-0.4076054965560443</v>
+      </c>
+      <c r="E5">
+        <v>0.6679348286909585</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B2">
-        <v>-0.5505534192873721</v>
-      </c>
-      <c r="C2">
-        <v>0.09048253234439504</v>
-      </c>
-      <c r="D2">
-        <v>1.411719632409533</v>
-      </c>
-      <c r="E2">
-        <v>0.7918051972585097</v>
-      </c>
-      <c r="F2">
-        <v>0.01250736776237091</v>
-      </c>
-      <c r="G2">
-        <v>0.3333097677679861</v>
-      </c>
-      <c r="H2">
-        <v>0.3360448077552461</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="1" t="s">
+      <c r="B6">
+        <v>1.684782289828746</v>
+      </c>
+      <c r="C6">
+        <v>-0.2901858341725384</v>
+      </c>
+      <c r="D6">
+        <v>0.5382762580381993</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B3">
-        <v>-0.2441545573611268</v>
-      </c>
-      <c r="C3">
-        <v>1.453378923014906</v>
-      </c>
-      <c r="D3">
-        <v>0.8971955164823866</v>
-      </c>
-      <c r="E3">
-        <v>-0.0520621834453823</v>
-      </c>
-      <c r="F3">
-        <v>0.3553955436467085</v>
-      </c>
-      <c r="G3">
-        <v>0.3611617004298094</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="1" t="s">
+      <c r="B7">
+        <v>-0.1256988161524653</v>
+      </c>
+      <c r="C7">
+        <v>0.5321523504033454</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B4">
-        <v>1.313315036513016</v>
-      </c>
-      <c r="C4">
-        <v>0.9162270933880111</v>
-      </c>
-      <c r="D4">
-        <v>-0.002302559430598816</v>
-      </c>
-      <c r="E4">
-        <v>0.331479007252749</v>
-      </c>
-      <c r="F4">
-        <v>0.3732463951786679</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="1" t="s">
+      <c r="B8">
+        <v>0.612869693591247</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B5">
-        <v>1.71152445118914</v>
-      </c>
-      <c r="C5">
-        <v>-0.08668824821473481</v>
-      </c>
-      <c r="D5">
-        <v>0.07935258457536609</v>
-      </c>
-      <c r="E5">
-        <v>0.5282888866028351</v>
-      </c>
-      <c r="F5">
-        <v>0.2002866213097708</v>
-      </c>
-      <c r="G5">
-        <v>0.3583744189916861</v>
-      </c>
-      <c r="H5">
-        <v>0.3427154784688819</v>
-      </c>
-      <c r="I5">
-        <v>0.07912393585369162</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="1" t="s">
+      <c r="B9">
+        <v>0.7117109563966462</v>
+      </c>
+      <c r="C9">
+        <v>0.2116139134719616</v>
+      </c>
+      <c r="D9">
+        <v>0.1756230909291713</v>
+      </c>
+      <c r="E9">
+        <v>-0.7962504596765687</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B6">
-        <v>0.8968217653627972</v>
-      </c>
-      <c r="C6">
-        <v>0.01506744378712873</v>
-      </c>
-      <c r="D6">
-        <v>0.19929373079676</v>
-      </c>
-      <c r="E6">
-        <v>0.3774435939655781</v>
-      </c>
-      <c r="F6">
-        <v>0.3195240269211494</v>
-      </c>
-      <c r="G6">
-        <v>0.2655705628700223</v>
-      </c>
-      <c r="H6">
-        <v>0.09677224057186043</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="1" t="s">
+      <c r="B10">
+        <v>0.3699198881646638</v>
+      </c>
+      <c r="C10">
+        <v>0.196957248838842</v>
+      </c>
+      <c r="D10">
+        <v>-0.8332610303749726</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B7">
-        <v>0.5158837042361689</v>
-      </c>
-      <c r="C7">
-        <v>0.1746433496821583</v>
-      </c>
-      <c r="D7">
-        <v>0.2155146434288091</v>
-      </c>
-      <c r="E7">
-        <v>0.4032596423933898</v>
-      </c>
-      <c r="F7">
-        <v>0.2503038027780079</v>
-      </c>
-      <c r="G7">
-        <v>0.0611537948362009</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="1" t="s">
+      <c r="B11">
+        <v>0.3584093410453556</v>
+      </c>
+      <c r="C11">
+        <v>-0.7929359461290493</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B8">
-        <v>0.4592315260053153</v>
-      </c>
-      <c r="C8">
-        <v>0.1905333970529424</v>
-      </c>
-      <c r="D8">
-        <v>0.3192321577040877</v>
-      </c>
-      <c r="E8">
-        <v>0.2925202532854707</v>
-      </c>
-      <c r="F8">
-        <v>0.04791254359970512</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="1" t="s">
+      <c r="B12">
+        <v>-0.6675352999724704</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B9">
-        <v>0.4459732837266428</v>
-      </c>
-      <c r="C9">
-        <v>0.2986349598944478</v>
-      </c>
-      <c r="D9">
-        <v>0.2204335790532894</v>
-      </c>
-      <c r="E9">
-        <v>0.08667739434772689</v>
-      </c>
-      <c r="F9">
-        <v>-0.2823343392462535</v>
-      </c>
-      <c r="G9">
-        <v>0.01526774994995572</v>
-      </c>
-      <c r="H9">
-        <v>0.021165966265451</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="1" t="s">
+      <c r="B13">
+        <v>-0.8789996942204306</v>
+      </c>
+      <c r="C13">
+        <v>0.8360101721188702</v>
+      </c>
+      <c r="D13">
+        <v>-0.1636660232675148</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B10">
-        <v>0.5408524405704009</v>
-      </c>
-      <c r="C10">
-        <v>0.1991594695873746</v>
-      </c>
-      <c r="D10">
-        <v>0.01472306344477881</v>
-      </c>
-      <c r="E10">
-        <v>-0.2480830034136995</v>
-      </c>
-      <c r="F10">
-        <v>0.003539950515168921</v>
-      </c>
-      <c r="G10">
-        <v>0.004660824592594509</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="1" t="s">
+      <c r="B14">
+        <v>0.6186063644369458</v>
+      </c>
+      <c r="C14">
+        <v>-0.1134872213015661</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B11">
-        <v>0.488943811088772</v>
-      </c>
-      <c r="C11">
-        <v>-0.01256954187422518</v>
-      </c>
-      <c r="D11">
-        <v>-0.3351186392086866</v>
-      </c>
-      <c r="E11">
-        <v>0.04241094715577981</v>
-      </c>
-      <c r="F11">
-        <v>-0.01096969985942181</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="1" t="s">
+      <c r="B15">
+        <v>0.01642214676411852</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="B12">
-        <v>0.2491456432777054</v>
-      </c>
-      <c r="C12">
-        <v>-0.3599787275997236</v>
-      </c>
-      <c r="D12">
-        <v>-0.03571254909947538</v>
-      </c>
-      <c r="E12">
-        <v>0.02390117661406849</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13">
-        <v>-0.224582871479164</v>
-      </c>
-      <c r="C13">
-        <v>-0.04720286137033988</v>
-      </c>
-      <c r="D13">
-        <v>-0.014717337271103</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14">
-        <v>-0.1699528896029</v>
-      </c>
-      <c r="C14">
-        <v>-0.004486694610125408</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B15">
-        <v>-0.1113908761070921</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" s="1" t="s">
-        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/3_Component_Results/DOMUSE/Data/naive_err/AR2_50_9_qoq_errors_first_eval.xlsx
+++ b/3_Component_Results/DOMUSE/Data/naive_err/AR2_50_9_qoq_errors_first_eval.xlsx
@@ -453,13 +453,13 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>-1.478449417526166</v>
+        <v>-0.3425203228057133</v>
       </c>
       <c r="C2">
-        <v>-0.5192920885908771</v>
+        <v>0.1370775318625127</v>
       </c>
       <c r="D2">
-        <v>-0.1460320064541725</v>
+        <v>1.367787377993229</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -467,10 +467,10 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>-0.7424314425956271</v>
+        <v>-0.0860618221422374</v>
       </c>
       <c r="C3">
-        <v>-0.1301388846209565</v>
+        <v>1.383680499826445</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -478,7 +478,7 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>-0.1894384217185212</v>
+        <v>1.32438096272888</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -486,16 +486,16 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>1.250378864491863</v>
+        <v>1.231661280012998</v>
       </c>
       <c r="C5">
-        <v>1.437568000530804</v>
+        <v>0.1923542655531081</v>
       </c>
       <c r="D5">
-        <v>-0.4076054965560443</v>
+        <v>0.2120950120634008</v>
       </c>
       <c r="E5">
-        <v>0.6679348286909585</v>
+        <v>0.3792844388692188</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -503,13 +503,13 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>1.684782289828746</v>
+        <v>0.4395685548510502</v>
       </c>
       <c r="C6">
-        <v>-0.2901858341725384</v>
+        <v>0.3295146744469067</v>
       </c>
       <c r="D6">
-        <v>0.5382762580381993</v>
+        <v>0.2496258682164595</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -517,10 +517,10 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>-0.1256988161524653</v>
+        <v>0.4940016924669799</v>
       </c>
       <c r="C7">
-        <v>0.5321523504033454</v>
+        <v>0.2435019605816055</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -528,7 +528,7 @@
         <v>10</v>
       </c>
       <c r="B8">
-        <v>0.612869693591247</v>
+        <v>0.3242193037695071</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -536,16 +536,16 @@
         <v>11</v>
       </c>
       <c r="B9">
-        <v>0.7117109563966462</v>
+        <v>0.394042449657095</v>
       </c>
       <c r="C9">
-        <v>0.2116139134719616</v>
+        <v>0.3427404628639549</v>
       </c>
       <c r="D9">
-        <v>0.1756230909291713</v>
+        <v>0.2242390996078211</v>
       </c>
       <c r="E9">
-        <v>-0.7962504596765687</v>
+        <v>0.055485660899395</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -553,13 +553,13 @@
         <v>12</v>
       </c>
       <c r="B10">
-        <v>0.3699198881646638</v>
+        <v>0.5010464375566571</v>
       </c>
       <c r="C10">
-        <v>0.196957248838842</v>
+        <v>0.2455732575174918</v>
       </c>
       <c r="D10">
-        <v>-0.8332610303749726</v>
+        <v>0.0184750902009912</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -567,10 +567,10 @@
         <v>13</v>
       </c>
       <c r="B11">
-        <v>0.3584093410453556</v>
+        <v>0.4070253497240054</v>
       </c>
       <c r="C11">
-        <v>-0.7929359461290493</v>
+        <v>0.0588001744469144</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -578,7 +578,7 @@
         <v>14</v>
       </c>
       <c r="B12">
-        <v>-0.6675352999724704</v>
+        <v>0.1842008206034934</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -586,13 +586,13 @@
         <v>15</v>
       </c>
       <c r="B13">
-        <v>-0.8789996942204306</v>
+        <v>-0.3665930774731743</v>
       </c>
       <c r="C13">
-        <v>0.8360101721188702</v>
+        <v>0.101671561665663</v>
       </c>
       <c r="D13">
-        <v>-0.1636660232675148</v>
+        <v>0.04785045814007061</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -600,10 +600,10 @@
         <v>16</v>
       </c>
       <c r="B14">
-        <v>0.6186063644369458</v>
+        <v>-0.1157322460162614</v>
       </c>
       <c r="C14">
-        <v>-0.1134872213015661</v>
+        <v>0.09802926010601931</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -611,7 +611,7 @@
         <v>17</v>
       </c>
       <c r="B15">
-        <v>0.01642214676411852</v>
+        <v>0.2279386281717039</v>
       </c>
     </row>
     <row r="16" spans="1:5">

--- a/3_Component_Results/DOMUSE/Data/naive_err/AR2_50_9_qoq_errors_first_eval.xlsx
+++ b/3_Component_Results/DOMUSE/Data/naive_err/AR2_50_9_qoq_errors_first_eval.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
   <si>
     <t>Q0</t>
   </si>
@@ -26,6 +26,120 @@
   </si>
   <si>
     <t>Q3</t>
+  </si>
+  <si>
+    <t>Q4</t>
+  </si>
+  <si>
+    <t>Q5</t>
+  </si>
+  <si>
+    <t>Q6</t>
+  </si>
+  <si>
+    <t>Q7</t>
+  </si>
+  <si>
+    <t>Q8</t>
+  </si>
+  <si>
+    <t>Q9</t>
+  </si>
+  <si>
+    <t>2010-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2010-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2011-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2011-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2012-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2012-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2013-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2013-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2014-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2014-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2015-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2015-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2016-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2016-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2017-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2017-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2018-01-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2018-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2018-07-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2018-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2019-01-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2019-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2019-07-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2019-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2020-01-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2020-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2020-07-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2020-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2021-01-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2021-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2021-07-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2021-10-01 00:00:00_diff</t>
   </si>
   <si>
     <t>2022-01-01 00:00:00_diff</t>
@@ -428,13 +542,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:K48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -447,176 +561,1503 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B2">
+        <v>-1.06136667616431</v>
+      </c>
+      <c r="C2">
+        <v>0.9849420116246905</v>
+      </c>
+      <c r="D2">
+        <v>-1.32863776513099</v>
+      </c>
+      <c r="E2">
+        <v>0.3252848392770045</v>
+      </c>
+      <c r="F2">
+        <v>-0.4341436367370153</v>
+      </c>
+      <c r="G2">
+        <v>0.1399421768796277</v>
+      </c>
+      <c r="H2">
+        <v>0.3779482308060484</v>
+      </c>
+      <c r="I2">
+        <v>0.6938609836713858</v>
+      </c>
+      <c r="J2">
+        <v>0.136516458784231</v>
+      </c>
+      <c r="K2">
+        <v>0.2654336495643019</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3">
+        <v>-0.4835506939111474</v>
+      </c>
+      <c r="C3">
+        <v>0.0502031342638532</v>
+      </c>
+      <c r="D3">
+        <v>-0.016974642555311</v>
+      </c>
+      <c r="E3">
+        <v>0.05031568789160923</v>
+      </c>
+      <c r="F3">
+        <v>0.6341485014712223</v>
+      </c>
+      <c r="G3">
+        <v>0.7045281873639249</v>
+      </c>
+      <c r="H3">
+        <v>0.3195500157424397</v>
+      </c>
+      <c r="I3">
+        <v>0.3261278111104802</v>
+      </c>
+      <c r="J3">
+        <v>0.3054204313263927</v>
+      </c>
+      <c r="K3">
+        <v>-0.07588119068803822</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4">
+        <v>-0.3932672371045038</v>
+      </c>
+      <c r="C4">
+        <v>0.2128789289574717</v>
+      </c>
+      <c r="D4">
+        <v>0.5187570262792209</v>
+      </c>
+      <c r="E4">
+        <v>0.7292276179364592</v>
+      </c>
+      <c r="F4">
+        <v>0.273165744477746</v>
+      </c>
+      <c r="G4">
+        <v>0.3164109256313146</v>
+      </c>
+      <c r="H4">
+        <v>0.2767402709184447</v>
+      </c>
+      <c r="I4">
+        <v>-0.09460253173792033</v>
+      </c>
+      <c r="J4">
+        <v>-0.4074580132176614</v>
+      </c>
+      <c r="K4">
+        <v>0.6086293320848295</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5">
+        <v>0.5492255866173317</v>
+      </c>
+      <c r="C5">
+        <v>0.7410797857541471</v>
+      </c>
+      <c r="D5">
+        <v>0.2756058625913476</v>
+      </c>
+      <c r="E5">
+        <v>0.3312683173008407</v>
+      </c>
+      <c r="F5">
+        <v>0.278595335304628</v>
+      </c>
+      <c r="G5">
+        <v>-0.08285434289859839</v>
+      </c>
+      <c r="H5">
+        <v>-0.4032364895421966</v>
+      </c>
+      <c r="I5">
+        <v>0.6180661286792679</v>
+      </c>
+      <c r="J5">
+        <v>-1.556719409847037</v>
+      </c>
+      <c r="K5">
+        <v>0.4708974312044008</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6">
+        <v>0.3634607038687629</v>
+      </c>
+      <c r="C6">
+        <v>0.1051305299888017</v>
+      </c>
+      <c r="D6">
+        <v>0.3273481625751101</v>
+      </c>
+      <c r="E6">
+        <v>-0.1774495046306476</v>
+      </c>
+      <c r="F6">
+        <v>-0.3892967898607449</v>
+      </c>
+      <c r="G6">
+        <v>0.5695194309585233</v>
+      </c>
+      <c r="H6">
+        <v>-1.561386937679536</v>
+      </c>
+      <c r="I6">
+        <v>0.4395898561801918</v>
+      </c>
+      <c r="J6">
+        <v>0.4560991015403254</v>
+      </c>
+      <c r="K6">
+        <v>-0.7777955423342593</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7">
+        <v>0.08727366148941565</v>
+      </c>
+      <c r="C7">
+        <v>-0.1884153272209858</v>
+      </c>
+      <c r="D7">
+        <v>-0.484423330549043</v>
+      </c>
+      <c r="E7">
+        <v>0.5570567401030372</v>
+      </c>
+      <c r="F7">
+        <v>-1.612949593773152</v>
+      </c>
+      <c r="G7">
+        <v>0.4193905986053166</v>
+      </c>
+      <c r="H7">
+        <v>0.4188736502621012</v>
+      </c>
+      <c r="I7">
+        <v>-0.8027249560784726</v>
+      </c>
+      <c r="J7">
+        <v>-0.2580627882780775</v>
+      </c>
+      <c r="K7">
+        <v>0.4667343738730236</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8">
+        <v>-0.5085434606100533</v>
+      </c>
+      <c r="C8">
+        <v>0.4924012208237484</v>
+      </c>
+      <c r="D8">
+        <v>-1.624733297002596</v>
+      </c>
+      <c r="E8">
+        <v>0.3896334015851541</v>
+      </c>
+      <c r="F8">
+        <v>0.4066673287462595</v>
+      </c>
+      <c r="G8">
+        <v>-0.8222229331283579</v>
+      </c>
+      <c r="H8">
+        <v>-0.2715825308085303</v>
+      </c>
+      <c r="I8">
+        <v>0.4503882294183323</v>
+      </c>
+      <c r="J8">
+        <v>-0.4897846385204604</v>
+      </c>
+      <c r="K8">
+        <v>-0.618482679672403</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9">
+        <v>-1.592281801467279</v>
+      </c>
+      <c r="C9">
+        <v>0.5736393302987326</v>
+      </c>
+      <c r="D9">
+        <v>0.4325410728623821</v>
+      </c>
+      <c r="E9">
+        <v>-0.7340076430295127</v>
+      </c>
+      <c r="F9">
+        <v>-0.2360309918736651</v>
+      </c>
+      <c r="G9">
+        <v>0.5100903313376808</v>
+      </c>
+      <c r="H9">
+        <v>-0.4480306597182485</v>
+      </c>
+      <c r="I9">
+        <v>-0.5676687763980619</v>
+      </c>
+      <c r="J9">
+        <v>-0.5285348257628824</v>
+      </c>
+      <c r="K9">
+        <v>0.4199761422745513</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10">
+        <v>0.03943852101422318</v>
+      </c>
+      <c r="C10">
+        <v>-0.1965353235219663</v>
+      </c>
+      <c r="D10">
+        <v>-0.4210394942024588</v>
+      </c>
+      <c r="E10">
+        <v>0.7309641551374624</v>
+      </c>
+      <c r="F10">
+        <v>-0.5166616930477417</v>
+      </c>
+      <c r="G10">
+        <v>-0.4636613622824474</v>
+      </c>
+      <c r="H10">
+        <v>-0.5420645396207701</v>
+      </c>
+      <c r="I10">
+        <v>0.47889319245659</v>
+      </c>
+      <c r="J10">
+        <v>-0.1918775837384957</v>
+      </c>
+      <c r="K10">
+        <v>-0.3416084508742602</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11">
+        <v>-0.320376340096665</v>
+      </c>
+      <c r="C11">
+        <v>0.3597096724742529</v>
+      </c>
+      <c r="D11">
+        <v>-0.481055048982867</v>
+      </c>
+      <c r="E11">
+        <v>-0.6331067060769643</v>
+      </c>
+      <c r="F11">
+        <v>-0.5583343209999301</v>
+      </c>
+      <c r="G11">
+        <v>0.3770011537730003</v>
+      </c>
+      <c r="H11">
+        <v>-0.2344613066053657</v>
+      </c>
+      <c r="I11">
+        <v>-0.4193177416805645</v>
+      </c>
+      <c r="J11">
+        <v>0.08192792545848071</v>
+      </c>
+      <c r="K11">
+        <v>-0.91952873460641</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12">
+        <v>-0.2938393750181258</v>
+      </c>
+      <c r="C12">
+        <v>-0.5394766041887784</v>
+      </c>
+      <c r="D12">
+        <v>-0.4967169278539436</v>
+      </c>
+      <c r="E12">
+        <v>0.4213853063413077</v>
+      </c>
+      <c r="F12">
+        <v>-0.1961321532313629</v>
+      </c>
+      <c r="G12">
+        <v>-0.3839992022146093</v>
+      </c>
+      <c r="H12">
+        <v>0.1159731917186137</v>
+      </c>
+      <c r="I12">
+        <v>-0.8859284007463007</v>
+      </c>
+      <c r="J12">
+        <v>-0.1523080827754715</v>
+      </c>
+      <c r="K12">
+        <v>0.142980142805409</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13">
+        <v>-0.7118454438116746</v>
+      </c>
+      <c r="C13">
+        <v>0.5397298017007713</v>
+      </c>
+      <c r="D13">
+        <v>-0.2685007859206555</v>
+      </c>
+      <c r="E13">
+        <v>-0.3525342491799136</v>
+      </c>
+      <c r="F13">
+        <v>0.0890043404720583</v>
+      </c>
+      <c r="G13">
+        <v>-0.8807302666013721</v>
+      </c>
+      <c r="H13">
+        <v>-0.1650755554715674</v>
+      </c>
+      <c r="I13">
+        <v>0.1401534542094316</v>
+      </c>
+      <c r="J13">
+        <v>-0.1149681660212682</v>
+      </c>
+      <c r="K13">
+        <v>-0.6026613275759491</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14">
+        <v>-0.1209493892753916</v>
+      </c>
+      <c r="C14">
+        <v>-0.2544261182610122</v>
+      </c>
+      <c r="D14">
+        <v>0.138390872880535</v>
+      </c>
+      <c r="E14">
+        <v>-0.8374744232793205</v>
+      </c>
+      <c r="F14">
+        <v>-0.1311270200118898</v>
+      </c>
+      <c r="G14">
+        <v>0.1735079326005041</v>
+      </c>
+      <c r="H14">
+        <v>-0.08337600514505589</v>
+      </c>
+      <c r="I14">
+        <v>-0.5711059381679988</v>
+      </c>
+      <c r="J14">
+        <v>-0.4967172121899768</v>
+      </c>
+      <c r="K14">
+        <v>0.2954518696415058</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15">
+        <v>0.007476241353919499</v>
+      </c>
+      <c r="C15">
+        <v>-0.8126188260720525</v>
+      </c>
+      <c r="D15">
+        <v>-0.1728360588197922</v>
+      </c>
+      <c r="E15">
+        <v>0.1755956371798001</v>
+      </c>
+      <c r="F15">
+        <v>-0.1020465368436722</v>
+      </c>
+      <c r="G15">
+        <v>-0.5771910442482281</v>
+      </c>
+      <c r="H15">
+        <v>-0.5091328001532938</v>
+      </c>
+      <c r="I15">
+        <v>0.2867013234908113</v>
+      </c>
+      <c r="J15">
+        <v>0.09296856515151231</v>
+      </c>
+      <c r="K15">
+        <v>-0.1935395703576917</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16">
+        <v>-0.0280615959440349</v>
+      </c>
+      <c r="C16">
+        <v>0.1260884506171395</v>
+      </c>
+      <c r="D16">
+        <v>-0.05223546833278309</v>
+      </c>
+      <c r="E16">
+        <v>-0.5835795492098291</v>
+      </c>
+      <c r="F16">
+        <v>-0.4860765737028173</v>
+      </c>
+      <c r="G16">
+        <v>0.2934061817119823</v>
+      </c>
+      <c r="H16">
+        <v>0.1083622661555311</v>
+      </c>
+      <c r="I16">
+        <v>-0.1829195034885742</v>
+      </c>
+      <c r="J16">
+        <v>0.7110937002398816</v>
+      </c>
+      <c r="K16">
+        <v>-0.4125906276057382</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17">
+        <v>0.1355025628735686</v>
+      </c>
+      <c r="C17">
+        <v>-0.5542453974036921</v>
+      </c>
+      <c r="D17">
+        <v>-0.4293947647455675</v>
+      </c>
+      <c r="E17">
+        <v>0.304667760643975</v>
+      </c>
+      <c r="F17">
+        <v>0.133166165962074</v>
+      </c>
+      <c r="G17">
+        <v>-0.1718756785841264</v>
+      </c>
+      <c r="H17">
+        <v>0.7275800946512243</v>
+      </c>
+      <c r="I17">
+        <v>-0.4004402585650277</v>
+      </c>
+      <c r="J17">
+        <v>1.820462389983051</v>
+      </c>
+      <c r="K17">
+        <v>7.549813433599464</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18">
+        <v>-0.5317675003039063</v>
+      </c>
+      <c r="C18">
+        <v>-0.5432950843697804</v>
+      </c>
+      <c r="D18">
+        <v>0.3095088219166495</v>
+      </c>
+      <c r="E18">
+        <v>0.08900483569236178</v>
+      </c>
+      <c r="F18">
+        <v>-0.180256515736943</v>
+      </c>
+      <c r="G18">
+        <v>0.702458520189285</v>
+      </c>
+      <c r="H18">
+        <v>-0.4145226593708619</v>
+      </c>
+      <c r="I18">
+        <v>1.800808149754253</v>
+      </c>
+      <c r="J18">
+        <v>7.533618634626399</v>
+      </c>
+      <c r="K18">
+        <v>-4.427785686878368</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19">
+        <v>-0.5558753509773832</v>
+      </c>
+      <c r="C19">
+        <v>0.3170377041867627</v>
+      </c>
+      <c r="D19">
+        <v>0.08086572711522677</v>
+      </c>
+      <c r="E19">
+        <v>-0.1814020229263007</v>
+      </c>
+      <c r="F19">
+        <v>0.696588256515283</v>
+      </c>
+      <c r="G19">
+        <v>-0.4180615152972803</v>
+      </c>
+      <c r="H19">
+        <v>1.795813780673693</v>
+      </c>
+      <c r="I19">
+        <v>7.529384792120308</v>
+      </c>
+      <c r="J19">
+        <v>-4.432473743967052</v>
+      </c>
+      <c r="K19">
+        <v>1.188235756568644</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20">
+        <v>0.2368412739700703</v>
+      </c>
+      <c r="C20">
+        <v>0.2311238701789988</v>
+      </c>
+      <c r="D20">
+        <v>-0.2226547100671276</v>
+      </c>
+      <c r="E20">
+        <v>0.7342494963662882</v>
+      </c>
+      <c r="F20">
+        <v>-0.4343558855978146</v>
+      </c>
+      <c r="G20">
+        <v>1.804865051114317</v>
+      </c>
+      <c r="H20">
+        <v>7.522778744268786</v>
+      </c>
+      <c r="I20">
+        <v>-4.431179219691685</v>
+      </c>
+      <c r="J20">
+        <v>1.184906086475647</v>
+      </c>
+      <c r="K20">
+        <v>2.339068169224137</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21">
+        <v>0.1113863600329498</v>
+      </c>
+      <c r="C21">
+        <v>-0.0830276308117826</v>
+      </c>
+      <c r="D21">
+        <v>0.6875107808104937</v>
+      </c>
+      <c r="E21">
+        <v>-0.3967609521423043</v>
+      </c>
+      <c r="F21">
+        <v>1.789097394056407</v>
+      </c>
+      <c r="G21">
+        <v>7.53337703543614</v>
+      </c>
+      <c r="H21">
+        <v>-4.436184260303202</v>
+      </c>
+      <c r="I21">
+        <v>1.187986542001032</v>
+      </c>
+      <c r="J21">
+        <v>2.337531255931819</v>
+      </c>
+      <c r="K21">
+        <v>-1.796861420255568</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22">
+        <v>-0.01053240988711113</v>
+      </c>
+      <c r="C22">
+        <v>0.6239600295813212</v>
+      </c>
+      <c r="D22">
+        <v>-0.3433858036378101</v>
+      </c>
+      <c r="E22">
+        <v>1.787731815247334</v>
+      </c>
+      <c r="F22">
+        <v>7.570512208419109</v>
+      </c>
+      <c r="G22">
+        <v>-4.419353325768378</v>
+      </c>
+      <c r="H22">
+        <v>1.217840481671439</v>
+      </c>
+      <c r="I22">
+        <v>2.360122444745943</v>
+      </c>
+      <c r="J22">
+        <v>-1.76981507059926</v>
+      </c>
+      <c r="K22">
+        <v>-0.7786523765165272</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23">
+        <v>0.6249576532299849</v>
+      </c>
+      <c r="C23">
+        <v>-0.4484079751468614</v>
+      </c>
+      <c r="D23">
+        <v>1.771072045359338</v>
+      </c>
+      <c r="E23">
+        <v>7.514611132478866</v>
+      </c>
+      <c r="F23">
+        <v>-4.446596583008657</v>
+      </c>
+      <c r="G23">
+        <v>1.17657120971309</v>
+      </c>
+      <c r="H23">
+        <v>2.328284619332226</v>
+      </c>
+      <c r="I23">
+        <v>-1.806564073451005</v>
+      </c>
+      <c r="J23">
+        <v>-0.812267370455884</v>
+      </c>
+      <c r="K23">
+        <v>0.7582238806370667</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24">
+        <v>-0.5140451319989754</v>
+      </c>
+      <c r="C24">
+        <v>1.853932121435411</v>
+      </c>
+      <c r="D24">
+        <v>7.512232273662053</v>
+      </c>
+      <c r="E24">
+        <v>-4.410166746307581</v>
+      </c>
+      <c r="F24">
+        <v>1.191103468078647</v>
+      </c>
+      <c r="G24">
+        <v>2.352967266337266</v>
+      </c>
+      <c r="H24">
+        <v>-1.787525872525904</v>
+      </c>
+      <c r="I24">
+        <v>-0.7905709286342446</v>
+      </c>
+      <c r="J24">
+        <v>0.7784601295815625</v>
+      </c>
+      <c r="K24">
+        <v>-0.6327595800952642</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25">
+        <v>1.823465493846359</v>
+      </c>
+      <c r="C25">
+        <v>7.35952526462718</v>
+      </c>
+      <c r="D25">
+        <v>-4.431231115242626</v>
+      </c>
+      <c r="E25">
+        <v>1.13845305472052</v>
+      </c>
+      <c r="F25">
+        <v>2.330391677031836</v>
+      </c>
+      <c r="G25">
+        <v>-1.818105986002765</v>
+      </c>
+      <c r="H25">
+        <v>-0.8142608210800032</v>
+      </c>
+      <c r="I25">
+        <v>0.7527718670436336</v>
+      </c>
+      <c r="J25">
+        <v>-0.6568657416425117</v>
+      </c>
+      <c r="K25">
+        <v>-0.3568133544023509</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B26">
+        <v>7.379855356951019</v>
+      </c>
+      <c r="C26">
+        <v>-4.337864341016267</v>
+      </c>
+      <c r="D26">
+        <v>1.163991501861784</v>
+      </c>
+      <c r="E26">
+        <v>2.366985490381471</v>
+      </c>
+      <c r="F26">
+        <v>-1.793221861685196</v>
+      </c>
+      <c r="G26">
+        <v>-0.7881031631147259</v>
+      </c>
+      <c r="H26">
+        <v>0.7770671244775753</v>
+      </c>
+      <c r="I26">
+        <v>-0.6325586334312824</v>
+      </c>
+      <c r="J26">
+        <v>-0.3327561879021573</v>
+      </c>
+      <c r="K26">
+        <v>0.2434076967236004</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B27">
+        <v>-4.530340279742247</v>
+      </c>
+      <c r="C27">
+        <v>0.7514471483405254</v>
+      </c>
+      <c r="D27">
+        <v>2.254528554276642</v>
+      </c>
+      <c r="E27">
+        <v>-1.943910736288798</v>
+      </c>
+      <c r="F27">
+        <v>-0.8767732941863825</v>
+      </c>
+      <c r="G27">
+        <v>0.6820348970635053</v>
+      </c>
+      <c r="H27">
+        <v>-0.7147337970709565</v>
+      </c>
+      <c r="I27">
+        <v>-0.415918526872244</v>
+      </c>
+      <c r="J27">
+        <v>0.1629193086549876</v>
+      </c>
+      <c r="K27">
+        <v>1.238305773514824</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28">
+        <v>0.3629570978570982</v>
+      </c>
+      <c r="C28">
+        <v>2.200545984433298</v>
+      </c>
+      <c r="D28">
+        <v>-1.866898713503996</v>
+      </c>
+      <c r="E28">
+        <v>-0.9171547244548632</v>
+      </c>
+      <c r="F28">
+        <v>0.6603617230231675</v>
+      </c>
+      <c r="G28">
+        <v>-0.7512301902155913</v>
+      </c>
+      <c r="H28">
+        <v>-0.4507401246614074</v>
+      </c>
+      <c r="I28">
+        <v>0.1250321466037017</v>
+      </c>
+      <c r="J28">
+        <v>1.200771130029263</v>
+      </c>
+      <c r="K28">
+        <v>0.7589640519691225</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B29">
+        <v>2.428043571684958</v>
+      </c>
+      <c r="C29">
+        <v>-1.923744081860244</v>
+      </c>
+      <c r="D29">
+        <v>-0.8984103598200469</v>
+      </c>
+      <c r="E29">
+        <v>0.6680217771819458</v>
+      </c>
+      <c r="F29">
+        <v>-0.7434228738270707</v>
+      </c>
+      <c r="G29">
+        <v>-0.4425978068791742</v>
+      </c>
+      <c r="H29">
+        <v>0.133102838771267</v>
+      </c>
+      <c r="I29">
+        <v>1.208842969800109</v>
+      </c>
+      <c r="J29">
+        <v>0.767038707712806</v>
+      </c>
+      <c r="K29">
+        <v>-0.04273410750109741</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B30">
+        <v>-1.283702982209084</v>
+      </c>
+      <c r="C30">
+        <v>-0.6787066475613199</v>
+      </c>
+      <c r="D30">
+        <v>0.5164574858372915</v>
+      </c>
+      <c r="E30">
+        <v>-0.7419185961583078</v>
+      </c>
+      <c r="F30">
+        <v>-0.4161402356306824</v>
+      </c>
+      <c r="G30">
+        <v>0.1284218879199735</v>
+      </c>
+      <c r="H30">
+        <v>1.207505446151532</v>
+      </c>
+      <c r="I30">
+        <v>0.7700133058531633</v>
+      </c>
+      <c r="J30">
+        <v>-0.04133774697456952</v>
+      </c>
+      <c r="K30">
+        <v>0.2384627866671519</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="A31" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31">
+        <v>-1.197675863070439</v>
+      </c>
+      <c r="C31">
+        <v>0.5356924865785363</v>
+      </c>
+      <c r="D31">
+        <v>-0.5381109442644381</v>
+      </c>
+      <c r="E31">
+        <v>-0.3853234497641088</v>
+      </c>
+      <c r="F31">
+        <v>0.181392747351546</v>
+      </c>
+      <c r="G31">
+        <v>1.286986457368933</v>
+      </c>
+      <c r="H31">
+        <v>0.8363232006177169</v>
+      </c>
+      <c r="I31">
+        <v>0.024276627359022</v>
+      </c>
+      <c r="J31">
+        <v>0.3068036839354784</v>
+      </c>
+      <c r="K31">
+        <v>0.3452398770285351</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="A32" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B32">
+        <v>0.1111072762275906</v>
+      </c>
+      <c r="C32">
+        <v>-0.5836219151574396</v>
+      </c>
+      <c r="D32">
+        <v>-0.2495287614539637</v>
+      </c>
+      <c r="E32">
+        <v>0.1818007604083866</v>
+      </c>
+      <c r="F32">
+        <v>1.29928904048951</v>
+      </c>
+      <c r="G32">
+        <v>0.8704684707559575</v>
+      </c>
+      <c r="H32">
+        <v>0.0486228951786212</v>
+      </c>
+      <c r="I32">
+        <v>0.3303481646628407</v>
+      </c>
+      <c r="J32">
+        <v>0.3709308429037992</v>
+      </c>
+      <c r="K32">
+        <v>0.2613527349100159</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="A33" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B33">
+        <v>-0.7012274012039439</v>
+      </c>
+      <c r="C33">
+        <v>-0.1227094658981103</v>
+      </c>
+      <c r="D33">
+        <v>0.2311161430472896</v>
+      </c>
+      <c r="E33">
+        <v>1.318729591046718</v>
+      </c>
+      <c r="F33">
+        <v>0.9167922810174671</v>
+      </c>
+      <c r="G33">
+        <v>0.0928018501005943</v>
+      </c>
+      <c r="H33">
+        <v>0.3693752957908104</v>
+      </c>
+      <c r="I33">
+        <v>0.4120855740721988</v>
+      </c>
+      <c r="J33">
+        <v>0.3029228330942274</v>
+      </c>
+      <c r="K33">
+        <v>0.4625557123880896</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="A34" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B34">
         <v>-0.3425203228057133</v>
       </c>
-      <c r="C2">
+      <c r="C34">
         <v>0.1370775318625127</v>
       </c>
-      <c r="D2">
+      <c r="D34">
         <v>1.367787377993229</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3">
+      <c r="E34">
+        <v>0.897749153982319</v>
+      </c>
+      <c r="F34">
+        <v>0.06624080275473918</v>
+      </c>
+      <c r="G34">
+        <v>0.3584888978363171</v>
+      </c>
+      <c r="H34">
+        <v>0.3979293538866946</v>
+      </c>
+      <c r="I34">
+        <v>0.2866738256550034</v>
+      </c>
+      <c r="J34">
+        <v>0.4475838607479658</v>
+      </c>
+      <c r="K34">
+        <v>0.3558291479633751</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="A35" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B35">
         <v>-0.0860618221422374</v>
       </c>
-      <c r="C3">
+      <c r="C35">
         <v>1.383680499826445</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4">
+      <c r="D35">
+        <v>0.9316780121720623</v>
+      </c>
+      <c r="E35">
+        <v>0.05897046649128798</v>
+      </c>
+      <c r="F35">
+        <v>0.3601668555229699</v>
+      </c>
+      <c r="G35">
+        <v>0.4031093172402048</v>
+      </c>
+      <c r="H35">
+        <v>0.2896113453718245</v>
+      </c>
+      <c r="I35">
+        <v>0.4506501151830729</v>
+      </c>
+      <c r="J35">
+        <v>0.3591583247184746</v>
+      </c>
+      <c r="K35">
+        <v>0.1426467362286725</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
+      <c r="A36" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B36">
         <v>1.32438096272888</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5">
+      <c r="C36">
+        <v>0.9220717593293094</v>
+      </c>
+      <c r="D36">
+        <v>0.05516176695940692</v>
+      </c>
+      <c r="E36">
+        <v>0.3462228873385728</v>
+      </c>
+      <c r="F36">
+        <v>0.3919083678234757</v>
+      </c>
+      <c r="G36">
+        <v>0.279081115336784</v>
+      </c>
+      <c r="H36">
+        <v>0.4394045974845401</v>
+      </c>
+      <c r="I36">
+        <v>0.3480690763157853</v>
+      </c>
+      <c r="J36">
+        <v>0.1316228026260586</v>
+      </c>
+      <c r="K36">
+        <v>-0.1859511542710725</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="A37" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B37">
         <v>1.231661280012998</v>
       </c>
-      <c r="C5">
+      <c r="C37">
         <v>0.1923542655531081</v>
       </c>
-      <c r="D5">
+      <c r="D37">
         <v>0.2120950120634008</v>
       </c>
-      <c r="E5">
+      <c r="E37">
         <v>0.3792844388692188</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6">
+      <c r="F37">
+        <v>0.2817062399742848</v>
+      </c>
+      <c r="G37">
+        <v>0.4128725976105417</v>
+      </c>
+      <c r="H37">
+        <v>0.3278316390862868</v>
+      </c>
+      <c r="I37">
+        <v>0.115191224502725</v>
+      </c>
+      <c r="J37">
+        <v>-0.2048571290824772</v>
+      </c>
+      <c r="K37">
+        <v>0.0874596612855153</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="A38" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B38">
         <v>0.4395685548510502</v>
       </c>
-      <c r="C6">
+      <c r="C38">
         <v>0.3295146744469067</v>
       </c>
-      <c r="D6">
+      <c r="D38">
         <v>0.2496258682164595</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7">
+      <c r="E38">
+        <v>0.2524589704246166</v>
+      </c>
+      <c r="F38">
+        <v>0.4009578371209045</v>
+      </c>
+      <c r="G38">
+        <v>0.2911594551203453</v>
+      </c>
+      <c r="H38">
+        <v>0.0826965450510023</v>
+      </c>
+      <c r="I38">
+        <v>-0.2338185657243826</v>
+      </c>
+      <c r="J38">
+        <v>0.05661072513200721</v>
+      </c>
+      <c r="K38">
+        <v>0.05082837753847452</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
+      <c r="A39" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B39">
         <v>0.4940016924669799</v>
       </c>
-      <c r="C7">
+      <c r="C39">
         <v>0.2435019605816055</v>
       </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8">
+      <c r="D39">
+        <v>0.1846177915208531</v>
+      </c>
+      <c r="E39">
+        <v>0.3817355685122225</v>
+      </c>
+      <c r="F39">
+        <v>0.2694643278504105</v>
+      </c>
+      <c r="G39">
+        <v>0.05279352234866391</v>
+      </c>
+      <c r="H39">
+        <v>-0.2609469146136283</v>
+      </c>
+      <c r="I39">
+        <v>0.03020777340054021</v>
+      </c>
+      <c r="J39">
+        <v>0.0237088883640342</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
+      <c r="A40" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B40">
         <v>0.3242193037695071</v>
       </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9">
+      <c r="C40">
+        <v>0.2411227133504108</v>
+      </c>
+      <c r="D40">
+        <v>0.3403436528977617</v>
+      </c>
+      <c r="E40">
+        <v>0.2626714274509484</v>
+      </c>
+      <c r="F40">
+        <v>0.05328994754997651</v>
+      </c>
+      <c r="G40">
+        <v>-0.2690417342015303</v>
+      </c>
+      <c r="H40">
+        <v>0.02342416416301032</v>
+      </c>
+      <c r="I40">
+        <v>0.0180969010904955</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
+      <c r="A41" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B41">
         <v>0.394042449657095</v>
       </c>
-      <c r="C9">
+      <c r="C41">
         <v>0.3427404628639549</v>
       </c>
-      <c r="D9">
+      <c r="D41">
         <v>0.2242390996078211</v>
       </c>
-      <c r="E9">
+      <c r="E41">
         <v>0.055485660899395</v>
       </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10">
+      <c r="F41">
+        <v>-0.2720704482389552</v>
+      </c>
+      <c r="G41">
+        <v>0.0145334856766528</v>
+      </c>
+      <c r="H41">
+        <v>0.01201288657082469</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
+      <c r="A42" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B42">
         <v>0.5010464375566571</v>
       </c>
-      <c r="C10">
+      <c r="C42">
         <v>0.2455732575174918</v>
       </c>
-      <c r="D10">
+      <c r="D42">
         <v>0.0184750902009912</v>
       </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11">
+      <c r="E42">
+        <v>-0.2660812326956903</v>
+      </c>
+      <c r="F42">
+        <v>0.0178693586145138</v>
+      </c>
+      <c r="G42">
+        <v>0.008329329357405907</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
+      <c r="A43" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B43">
         <v>0.4070253497240054</v>
       </c>
-      <c r="C11">
+      <c r="C43">
         <v>0.0588001744469144</v>
       </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12">
+      <c r="D43">
+        <v>-0.3053830765868398</v>
+      </c>
+      <c r="E43">
+        <v>0.02453217703100372</v>
+      </c>
+      <c r="F43">
+        <v>0.01487494769599448</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
+      <c r="A44" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B44">
         <v>0.1842008206034934</v>
       </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13">
+      <c r="C44">
+        <v>-0.2531160710273121</v>
+      </c>
+      <c r="D44">
+        <v>0.003457300861651802</v>
+      </c>
+      <c r="E44">
+        <v>0.0309764398468147</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
+      <c r="A45" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B45">
         <v>-0.3665930774731743</v>
       </c>
-      <c r="C13">
+      <c r="C45">
         <v>0.101671561665663</v>
       </c>
-      <c r="D13">
+      <c r="D45">
         <v>0.04785045814007061</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14">
+    <row r="46" spans="1:11">
+      <c r="A46" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B46">
         <v>-0.1157322460162614</v>
       </c>
-      <c r="C14">
+      <c r="C46">
         <v>0.09802926010601931</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15">
+    <row r="47" spans="1:11">
+      <c r="A47" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B47">
         <v>0.2279386281717039</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="1" t="s">
-        <v>18</v>
+    <row r="48" spans="1:11">
+      <c r="A48" s="1" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/3_Component_Results/DOMUSE/Data/naive_err/AR2_50_9_qoq_errors_first_eval.xlsx
+++ b/3_Component_Results/DOMUSE/Data/naive_err/AR2_50_9_qoq_errors_first_eval.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
   <si>
     <t>Q0</t>
   </si>
@@ -44,6 +44,21 @@
   </si>
   <si>
     <t>Q9</t>
+  </si>
+  <si>
+    <t>2007-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2008-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2008-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2009-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2009-10-01 00:00:00_diff</t>
   </si>
   <si>
     <t>2010-04-01 00:00:00_diff</t>
@@ -542,7 +557,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K48"/>
+  <dimension ref="A1:K53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -584,210 +599,60 @@
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B2">
-        <v>-1.06136667616431</v>
-      </c>
-      <c r="C2">
-        <v>0.9849420116246905</v>
-      </c>
-      <c r="D2">
-        <v>-1.32863776513099</v>
-      </c>
-      <c r="E2">
-        <v>0.3252848392770045</v>
-      </c>
-      <c r="F2">
-        <v>-0.4341436367370153</v>
-      </c>
-      <c r="G2">
-        <v>0.1399421768796277</v>
-      </c>
-      <c r="H2">
-        <v>0.3779482308060484</v>
-      </c>
-      <c r="I2">
-        <v>0.6938609836713858</v>
-      </c>
-      <c r="J2">
-        <v>0.136516458784231</v>
-      </c>
-      <c r="K2">
-        <v>0.2654336495643019</v>
-      </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B3">
-        <v>-0.4835506939111474</v>
-      </c>
-      <c r="C3">
-        <v>0.0502031342638532</v>
-      </c>
-      <c r="D3">
-        <v>-0.016974642555311</v>
-      </c>
-      <c r="E3">
-        <v>0.05031568789160923</v>
-      </c>
-      <c r="F3">
-        <v>0.6341485014712223</v>
-      </c>
-      <c r="G3">
-        <v>0.7045281873639249</v>
-      </c>
-      <c r="H3">
-        <v>0.3195500157424397</v>
-      </c>
-      <c r="I3">
-        <v>0.3261278111104802</v>
-      </c>
-      <c r="J3">
-        <v>0.3054204313263927</v>
-      </c>
-      <c r="K3">
-        <v>-0.07588119068803822</v>
-      </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B4">
-        <v>-0.3932672371045038</v>
-      </c>
-      <c r="C4">
-        <v>0.2128789289574717</v>
-      </c>
-      <c r="D4">
-        <v>0.5187570262792209</v>
-      </c>
-      <c r="E4">
-        <v>0.7292276179364592</v>
-      </c>
-      <c r="F4">
-        <v>0.273165744477746</v>
-      </c>
-      <c r="G4">
-        <v>0.3164109256313146</v>
-      </c>
-      <c r="H4">
-        <v>0.2767402709184447</v>
-      </c>
-      <c r="I4">
-        <v>-0.09460253173792033</v>
-      </c>
-      <c r="J4">
-        <v>-0.4074580132176614</v>
-      </c>
-      <c r="K4">
-        <v>0.6086293320848295</v>
-      </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B5">
-        <v>0.5492255866173317</v>
-      </c>
-      <c r="C5">
-        <v>0.7410797857541471</v>
-      </c>
-      <c r="D5">
-        <v>0.2756058625913476</v>
-      </c>
-      <c r="E5">
-        <v>0.3312683173008407</v>
-      </c>
-      <c r="F5">
-        <v>0.278595335304628</v>
-      </c>
-      <c r="G5">
-        <v>-0.08285434289859839</v>
-      </c>
-      <c r="H5">
-        <v>-0.4032364895421966</v>
-      </c>
-      <c r="I5">
-        <v>0.6180661286792679</v>
-      </c>
-      <c r="J5">
-        <v>-1.556719409847037</v>
-      </c>
-      <c r="K5">
-        <v>0.4708974312044008</v>
-      </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B6">
-        <v>0.3634607038687629</v>
-      </c>
-      <c r="C6">
-        <v>0.1051305299888017</v>
-      </c>
-      <c r="D6">
-        <v>0.3273481625751101</v>
-      </c>
-      <c r="E6">
-        <v>-0.1774495046306476</v>
-      </c>
-      <c r="F6">
-        <v>-0.3892967898607449</v>
-      </c>
-      <c r="G6">
-        <v>0.5695194309585233</v>
-      </c>
-      <c r="H6">
-        <v>-1.561386937679536</v>
-      </c>
-      <c r="I6">
-        <v>0.4395898561801918</v>
-      </c>
-      <c r="J6">
-        <v>0.4560991015403254</v>
-      </c>
-      <c r="K6">
-        <v>-0.7777955423342593</v>
-      </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B7">
-        <v>0.08727366148941565</v>
+        <v>-2.599775093864654</v>
       </c>
       <c r="C7">
-        <v>-0.1884153272209858</v>
+        <v>0.4213078533922215</v>
       </c>
       <c r="D7">
-        <v>-0.484423330549043</v>
+        <v>-0.0851732134718878</v>
       </c>
       <c r="E7">
-        <v>0.5570567401030372</v>
+        <v>-0.5545455541496284</v>
       </c>
       <c r="F7">
-        <v>-1.612949593773152</v>
+        <v>-0.2341436367370153</v>
       </c>
       <c r="G7">
-        <v>0.4193905986053166</v>
+        <v>-0.02969014145458965</v>
       </c>
       <c r="H7">
-        <v>0.4188736502621012</v>
+        <v>-0.1524194508597342</v>
       </c>
       <c r="I7">
-        <v>-0.8027249560784726</v>
+        <v>0.5892983349069034</v>
       </c>
       <c r="J7">
-        <v>-0.2580627882780775</v>
+        <v>0.5410791075487134</v>
       </c>
       <c r="K7">
-        <v>0.4667343738730236</v>
+        <v>0.2469615835596112</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -795,34 +660,34 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>-0.5085434606100533</v>
+        <v>0.7599138577479545</v>
       </c>
       <c r="C8">
-        <v>0.4924012208237484</v>
+        <v>-0.8296272591627797</v>
       </c>
       <c r="D8">
-        <v>-1.624733297002596</v>
+        <v>0.183025357444689</v>
       </c>
       <c r="E8">
-        <v>0.3896334015851541</v>
+        <v>-0.1193166304426081</v>
       </c>
       <c r="F8">
-        <v>0.4066673287462595</v>
+        <v>0.1037808198054395</v>
       </c>
       <c r="G8">
-        <v>-0.8222229331283579</v>
+        <v>0.5999655385994425</v>
       </c>
       <c r="H8">
-        <v>-0.2715825308085303</v>
+        <v>0.724112664506922</v>
       </c>
       <c r="I8">
-        <v>0.4503882294183323</v>
+        <v>0.3076557451057896</v>
       </c>
       <c r="J8">
-        <v>-0.4897846385204604</v>
+        <v>0.3331284835103464</v>
       </c>
       <c r="K8">
-        <v>-0.618482679672403</v>
+        <v>0.3012303191900245</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -830,34 +695,34 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>-1.592281801467279</v>
+        <v>-0.1932672371045038</v>
       </c>
       <c r="C9">
-        <v>0.5736393302987326</v>
+        <v>0.04324661062325436</v>
       </c>
       <c r="D9">
-        <v>0.4325410728623821</v>
+        <v>-0.01161065538656181</v>
       </c>
       <c r="E9">
-        <v>-0.7340076430295127</v>
+        <v>0.6246649691719768</v>
       </c>
       <c r="F9">
-        <v>-0.2360309918736651</v>
+        <v>0.6777283932422284</v>
       </c>
       <c r="G9">
-        <v>0.5100903313376808</v>
+        <v>0.297938859626624</v>
       </c>
       <c r="H9">
-        <v>-0.4480306597182485</v>
+        <v>0.3044483231023983</v>
       </c>
       <c r="I9">
-        <v>-0.5676687763980619</v>
+        <v>0.2825089781401424</v>
       </c>
       <c r="J9">
-        <v>-0.5285348257628824</v>
+        <v>-0.0973857149104142</v>
       </c>
       <c r="K9">
-        <v>0.4199761422745513</v>
+        <v>-0.4061154638499449</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -865,34 +730,34 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>0.03943852101422318</v>
+        <v>0.01885790495154901</v>
       </c>
       <c r="C10">
-        <v>-0.1965353235219663</v>
+        <v>0.6365171369896647</v>
       </c>
       <c r="D10">
-        <v>-0.4210394942024588</v>
+        <v>0.68016851135583</v>
       </c>
       <c r="E10">
-        <v>0.7309641551374624</v>
+        <v>0.31279625129615</v>
       </c>
       <c r="F10">
-        <v>-0.5166616930477417</v>
+        <v>0.3063033874885817</v>
       </c>
       <c r="G10">
-        <v>-0.4636613622824474</v>
+        <v>0.2942571669794643</v>
       </c>
       <c r="H10">
-        <v>-0.5420645396207701</v>
+        <v>-0.0931641912349494</v>
       </c>
       <c r="I10">
-        <v>0.47889319245659</v>
+        <v>-0.3966786672555065</v>
       </c>
       <c r="J10">
-        <v>-0.1918775837384957</v>
+        <v>0.6137917488812377</v>
       </c>
       <c r="K10">
-        <v>-0.3416084508742602</v>
+        <v>-1.55398144811108</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -900,34 +765,34 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>-0.320376340096665</v>
+        <v>0.7680233526332453</v>
       </c>
       <c r="C11">
-        <v>0.3597096724742529</v>
+        <v>0.08665846398411101</v>
       </c>
       <c r="D11">
-        <v>-0.481055048982867</v>
+        <v>0.3550562147590637</v>
       </c>
       <c r="E11">
-        <v>-0.6331067060769643</v>
+        <v>0.1996620052474151</v>
       </c>
       <c r="F11">
-        <v>-0.5583343209999301</v>
+        <v>-0.0792244915534977</v>
       </c>
       <c r="G11">
-        <v>0.3770011537730003</v>
+        <v>-0.4452253649762511</v>
       </c>
       <c r="H11">
-        <v>-0.2344613066053657</v>
+        <v>0.6091242210487386</v>
       </c>
       <c r="I11">
-        <v>-0.4193177416805645</v>
+        <v>-1.585289023135289</v>
       </c>
       <c r="J11">
-        <v>0.08192792545848071</v>
+        <v>0.4557940629208951</v>
       </c>
       <c r="K11">
-        <v>-0.91952873460641</v>
+        <v>0.4460097931269203</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -935,34 +800,34 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>-0.2938393750181258</v>
+        <v>0.1149817136733693</v>
       </c>
       <c r="C12">
-        <v>-0.5394766041887784</v>
+        <v>0.1886961826570769</v>
       </c>
       <c r="D12">
-        <v>-0.4967169278539436</v>
+        <v>-0.1743510322417958</v>
       </c>
       <c r="E12">
-        <v>0.4213853063413077</v>
+        <v>-0.4576880558317372</v>
       </c>
       <c r="F12">
-        <v>-0.1961321532313629</v>
+        <v>0.5575615649551221</v>
       </c>
       <c r="G12">
-        <v>-0.3839992022146093</v>
+        <v>-1.605488280710164</v>
       </c>
       <c r="H12">
-        <v>0.1159731917186137</v>
+        <v>0.4185686116426709</v>
       </c>
       <c r="I12">
-        <v>-0.8859284007463007</v>
+        <v>0.4210803793827069</v>
       </c>
       <c r="J12">
-        <v>-0.1523080827754715</v>
+        <v>-0.8032415029445406</v>
       </c>
       <c r="K12">
-        <v>0.142980142805409</v>
+        <v>-0.2573748024414758</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -970,34 +835,34 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>-0.7118454438116746</v>
+        <v>-0.1984711623028061</v>
       </c>
       <c r="C13">
-        <v>0.5397298017007713</v>
+        <v>-0.522343575111026</v>
       </c>
       <c r="D13">
-        <v>-0.2685007859206555</v>
+        <v>0.5457778617256782</v>
       </c>
       <c r="E13">
-        <v>-0.3525342491799136</v>
+        <v>-1.635245477730326</v>
       </c>
       <c r="F13">
-        <v>0.0890043404720583</v>
+        <v>0.4063622901268292</v>
       </c>
       <c r="G13">
-        <v>-0.8807302666013721</v>
+        <v>0.4015824023328216</v>
       </c>
       <c r="H13">
-        <v>-0.1650755554715674</v>
+        <v>-0.8167612454749933</v>
       </c>
       <c r="I13">
-        <v>0.1401534542094316</v>
+        <v>-0.2737209468961671</v>
       </c>
       <c r="J13">
-        <v>-0.1149681660212682</v>
+        <v>0.4522297872112956</v>
       </c>
       <c r="K13">
-        <v>-0.6026613275759491</v>
+        <v>-0.49062832164035</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -1005,34 +870,34 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>-0.1209493892753916</v>
+        <v>0.578229357260996</v>
       </c>
       <c r="C14">
-        <v>-0.2544261182610122</v>
+        <v>-1.451239549016748</v>
       </c>
       <c r="D14">
-        <v>0.138390872880535</v>
+        <v>0.4322360342429518</v>
       </c>
       <c r="E14">
-        <v>-0.8374744232793205</v>
+        <v>0.4897976924316668</v>
       </c>
       <c r="F14">
-        <v>-0.1311270200118898</v>
+        <v>-0.7812097065401281</v>
       </c>
       <c r="G14">
-        <v>0.1735079326005041</v>
+        <v>-0.2140188449768187</v>
       </c>
       <c r="H14">
-        <v>-0.08337600514505589</v>
+        <v>0.4939837660135075</v>
       </c>
       <c r="I14">
-        <v>-0.5711059381679988</v>
+        <v>-0.4398144183660089</v>
       </c>
       <c r="J14">
-        <v>-0.4967172121899768</v>
+        <v>-0.5732498698339226</v>
       </c>
       <c r="K14">
-        <v>0.2954518696415058</v>
+        <v>-0.5255200426117579</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -1040,34 +905,34 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>0.007476241353919499</v>
+        <v>0.03913348239479289</v>
       </c>
       <c r="C15">
-        <v>-0.8126188260720525</v>
+        <v>1.027270011939213</v>
       </c>
       <c r="D15">
-        <v>-0.1728360588197922</v>
+        <v>-0.9662182088689218</v>
       </c>
       <c r="E15">
-        <v>0.1755956371798001</v>
+        <v>0.006854978822963043</v>
       </c>
       <c r="F15">
-        <v>-0.1020465368436722</v>
+        <v>0.4253527326840144</v>
       </c>
       <c r="G15">
-        <v>-0.5771910442482281</v>
+        <v>-0.3358070042503943</v>
       </c>
       <c r="H15">
-        <v>-0.5091328001532938</v>
+        <v>-0.5867795836918103</v>
       </c>
       <c r="I15">
-        <v>0.2867013234908113</v>
+        <v>-0.4666029924297193</v>
       </c>
       <c r="J15">
-        <v>0.09296856515151231</v>
+        <v>0.4288730018125405</v>
       </c>
       <c r="K15">
-        <v>-0.1935395703576917</v>
+        <v>-0.1606097620349077</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -1075,34 +940,34 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <v>-0.0280615959440349</v>
+        <v>-0.8655550547631281</v>
       </c>
       <c r="C16">
-        <v>0.1260884506171395</v>
+        <v>-0.3643995038402464</v>
       </c>
       <c r="D16">
-        <v>-0.05223546833278309</v>
+        <v>0.460959376748889</v>
       </c>
       <c r="E16">
-        <v>-0.5835795492098291</v>
+        <v>-0.5052523480449113</v>
       </c>
       <c r="F16">
-        <v>-0.4860765737028173</v>
+        <v>-0.6030493650709703</v>
       </c>
       <c r="G16">
-        <v>0.2934061817119823</v>
+        <v>-0.5684950311133089</v>
       </c>
       <c r="H16">
-        <v>0.1083622661555311</v>
+        <v>0.3862892789456705</v>
       </c>
       <c r="I16">
-        <v>-0.1829195034885742</v>
+        <v>-0.238319052841212</v>
       </c>
       <c r="J16">
-        <v>0.7110937002398816</v>
+        <v>-0.4163595244981116</v>
       </c>
       <c r="K16">
-        <v>-0.4125906276057382</v>
+        <v>0.0805329408679176</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -1110,34 +975,34 @@
         <v>25</v>
       </c>
       <c r="B17">
-        <v>0.1355025628735686</v>
+        <v>0.6481750507136302</v>
       </c>
       <c r="C17">
-        <v>-0.5542453974036921</v>
+        <v>-0.4116222461567253</v>
       </c>
       <c r="D17">
-        <v>-0.4293947647455675</v>
+        <v>-0.5414319719249838</v>
       </c>
       <c r="E17">
-        <v>0.304667760643975</v>
+        <v>-0.5241108785450015</v>
       </c>
       <c r="F17">
-        <v>0.133166165962074</v>
+        <v>0.4246184323196733</v>
       </c>
       <c r="G17">
-        <v>-0.1718756785841264</v>
+        <v>-0.2030005133752568</v>
       </c>
       <c r="H17">
-        <v>0.7275800946512243</v>
+        <v>-0.3823142582379787</v>
       </c>
       <c r="I17">
-        <v>-0.4004402585650277</v>
+        <v>0.1141332747280269</v>
       </c>
       <c r="J17">
-        <v>1.820462389983051</v>
+        <v>-0.8852847537018906</v>
       </c>
       <c r="K17">
-        <v>7.549813433599464</v>
+        <v>-0.152826881537631</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1145,34 +1010,34 @@
         <v>26</v>
       </c>
       <c r="B18">
-        <v>-0.5317675003039063</v>
+        <v>-0.7565604878827148</v>
       </c>
       <c r="C18">
-        <v>-0.5432950843697804</v>
+        <v>-0.4057663831855379</v>
       </c>
       <c r="D18">
-        <v>0.3095088219166495</v>
+        <v>0.3522497996303807</v>
       </c>
       <c r="E18">
-        <v>0.08900483569236178</v>
+        <v>-0.1715355603405611</v>
       </c>
       <c r="F18">
-        <v>-0.180256515736943</v>
+        <v>-0.4092831094845341</v>
       </c>
       <c r="G18">
-        <v>0.702458520189285</v>
+        <v>0.1193314088729555</v>
       </c>
       <c r="H18">
-        <v>-0.4145226593708619</v>
+        <v>-0.8980522263979865</v>
       </c>
       <c r="I18">
-        <v>1.800808149754253</v>
+        <v>-0.1556535701336084</v>
       </c>
       <c r="J18">
-        <v>7.533618634626399</v>
+        <v>0.1348417040676331</v>
       </c>
       <c r="K18">
-        <v>-4.427785686878368</v>
+        <v>-0.1120512842982363</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1180,34 +1045,34 @@
         <v>27</v>
       </c>
       <c r="B19">
-        <v>-0.5558753509773832</v>
+        <v>0.4998011962756446</v>
       </c>
       <c r="C19">
-        <v>0.3170377041867627</v>
+        <v>-0.07342742942165981</v>
       </c>
       <c r="D19">
-        <v>0.08086572711522677</v>
+        <v>-0.3598965770760573</v>
       </c>
       <c r="E19">
-        <v>-0.1814020229263007</v>
+        <v>0.1625872521950072</v>
       </c>
       <c r="F19">
-        <v>0.696588256515283</v>
+        <v>-0.864103690938309</v>
       </c>
       <c r="G19">
-        <v>-0.4180615152972803</v>
+        <v>-0.1222990917425359</v>
       </c>
       <c r="H19">
-        <v>1.795813780673693</v>
+        <v>0.1664338649438454</v>
       </c>
       <c r="I19">
-        <v>7.529384792120308</v>
+        <v>-0.08049589489028602</v>
       </c>
       <c r="J19">
-        <v>-4.432473743967052</v>
+        <v>-0.5730541687050947</v>
       </c>
       <c r="K19">
-        <v>1.188235756568644</v>
+        <v>-0.4958239707762366</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1215,34 +1080,34 @@
         <v>28</v>
       </c>
       <c r="B20">
-        <v>0.2368412739700703</v>
+        <v>-0.4908112086026729</v>
       </c>
       <c r="C20">
-        <v>0.2311238701789988</v>
+        <v>0.1874428494022752</v>
       </c>
       <c r="D20">
-        <v>-0.2226547100671276</v>
+        <v>-0.9058127297462113</v>
       </c>
       <c r="E20">
-        <v>0.7342494963662882</v>
+        <v>-0.1202113871632399</v>
       </c>
       <c r="F20">
-        <v>-0.4343558855978146</v>
+        <v>0.1477633332452291</v>
       </c>
       <c r="G20">
-        <v>1.804865051114317</v>
+        <v>-0.0865810009705153</v>
       </c>
       <c r="H20">
-        <v>7.522778744268786</v>
+        <v>-0.5854697566684117</v>
       </c>
       <c r="I20">
-        <v>-4.431179219691685</v>
+        <v>-0.5045745169269311</v>
       </c>
       <c r="J20">
-        <v>1.184906086475647</v>
+        <v>0.2842444055692547</v>
       </c>
       <c r="K20">
-        <v>2.339068169224137</v>
+        <v>0.094314310433458</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1250,34 +1115,34 @@
         <v>29</v>
       </c>
       <c r="B21">
-        <v>0.1113863600329498</v>
+        <v>-0.7610382668704541</v>
       </c>
       <c r="C21">
-        <v>-0.0830276308117826</v>
+        <v>-0.1697185737259005</v>
       </c>
       <c r="D21">
-        <v>0.6875107808104937</v>
+        <v>0.1975744017561182</v>
       </c>
       <c r="E21">
-        <v>-0.3967609521423043</v>
+        <v>-0.09296950593211634</v>
       </c>
       <c r="F21">
-        <v>1.789097394056407</v>
+        <v>-0.5624135302179352</v>
       </c>
       <c r="G21">
-        <v>7.53337703543614</v>
+        <v>-0.4978696587057602</v>
       </c>
       <c r="H21">
-        <v>-4.436184260303202</v>
+        <v>0.2996381065732735</v>
       </c>
       <c r="I21">
-        <v>1.187986542001032</v>
+        <v>0.1049343773025755</v>
       </c>
       <c r="J21">
-        <v>2.337531255931819</v>
+        <v>-0.1810904405051886</v>
       </c>
       <c r="K21">
-        <v>-1.796861420255568</v>
+        <v>0.7100950095189205</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1285,34 +1150,34 @@
         <v>30</v>
       </c>
       <c r="B22">
-        <v>-0.01053240988711113</v>
+        <v>0.3853124329624699</v>
       </c>
       <c r="C22">
-        <v>0.6239600295813212</v>
+        <v>-0.0636353541259792</v>
       </c>
       <c r="D22">
-        <v>-0.3433858036378101</v>
+        <v>-0.5057317212606856</v>
       </c>
       <c r="E22">
-        <v>1.787731815247334</v>
+        <v>-0.4866080797737675</v>
       </c>
       <c r="F22">
-        <v>7.570512208419109</v>
+        <v>0.3244420063798164</v>
       </c>
       <c r="G22">
-        <v>-4.419353325768378</v>
+        <v>0.1159782022070233</v>
       </c>
       <c r="H22">
-        <v>1.217840481671439</v>
+        <v>-0.1646040460938459</v>
       </c>
       <c r="I22">
-        <v>2.360122444745943</v>
+        <v>0.7222453785596309</v>
       </c>
       <c r="J22">
-        <v>-1.76981507059926</v>
+        <v>-0.3978929871876867</v>
       </c>
       <c r="K22">
-        <v>-0.7786523765165272</v>
+        <v>1.818769300392457</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1320,34 +1185,34 @@
         <v>31</v>
       </c>
       <c r="B23">
-        <v>0.6249576532299849</v>
+        <v>-0.0411574570261935</v>
       </c>
       <c r="C23">
-        <v>-0.4484079751468614</v>
+        <v>-0.6196320408848983</v>
       </c>
       <c r="D23">
-        <v>1.771072045359338</v>
+        <v>-0.4817670185010929</v>
       </c>
       <c r="E23">
-        <v>7.514611132478866</v>
+        <v>0.2802806761101042</v>
       </c>
       <c r="F23">
-        <v>-4.446596583008657</v>
+        <v>0.1075973650542067</v>
       </c>
       <c r="G23">
-        <v>1.17657120971309</v>
+        <v>-0.1897256205557853</v>
       </c>
       <c r="H23">
-        <v>2.328284619332226</v>
+        <v>0.7081629777537968</v>
       </c>
       <c r="I23">
-        <v>-1.806564073451005</v>
+        <v>-0.4175472274164846</v>
       </c>
       <c r="J23">
-        <v>-0.812267370455884</v>
+        <v>1.802574501419392</v>
       </c>
       <c r="K23">
-        <v>0.7582238806370667</v>
+        <v>7.532660084419956</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1355,34 +1220,34 @@
         <v>32</v>
       </c>
       <c r="B24">
-        <v>-0.5140451319989754</v>
+        <v>-0.6322123074925011</v>
       </c>
       <c r="C24">
-        <v>1.853932121435411</v>
+        <v>-0.4742381362309798</v>
       </c>
       <c r="D24">
-        <v>7.512232273662053</v>
+        <v>0.2721415675329692</v>
       </c>
       <c r="E24">
-        <v>-4.410166746307581</v>
+        <v>0.106451857864849</v>
       </c>
       <c r="F24">
-        <v>1.191103468078647</v>
+        <v>-0.1955958842297873</v>
       </c>
       <c r="G24">
-        <v>2.352967266337266</v>
+        <v>0.7046241218273783</v>
       </c>
       <c r="H24">
-        <v>-1.787525872525904</v>
+        <v>-0.4225415964970449</v>
       </c>
       <c r="I24">
-        <v>-0.7905709286342446</v>
+        <v>1.798340658913301</v>
       </c>
       <c r="J24">
-        <v>0.7784601295815625</v>
+        <v>7.527972027331272</v>
       </c>
       <c r="K24">
-        <v>-0.6327595800952642</v>
+        <v>-4.431678617919062</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1390,34 +1255,34 @@
         <v>33</v>
       </c>
       <c r="B25">
-        <v>1.823465493846359</v>
+        <v>-0.5544345664476722</v>
       </c>
       <c r="C25">
-        <v>7.35952526462718</v>
+        <v>0.4223997105967412</v>
       </c>
       <c r="D25">
-        <v>-4.431231115242626</v>
+        <v>0.06519917072402209</v>
       </c>
       <c r="E25">
-        <v>1.13845305472052</v>
+        <v>-0.1579346443787821</v>
       </c>
       <c r="F25">
-        <v>2.330391677031836</v>
+        <v>0.6883297515268441</v>
       </c>
       <c r="G25">
-        <v>-1.818105986002765</v>
+        <v>-0.4134903260564207</v>
       </c>
       <c r="H25">
-        <v>-0.8142608210800032</v>
+        <v>1.791734611061779</v>
       </c>
       <c r="I25">
-        <v>0.7527718670436336</v>
+        <v>7.529266551606639</v>
       </c>
       <c r="J25">
-        <v>-0.6568657416425117</v>
+        <v>-4.435008288012059</v>
       </c>
       <c r="K25">
-        <v>-0.3568133544023509</v>
+        <v>1.186887124338316</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1425,34 +1290,34 @@
         <v>34</v>
       </c>
       <c r="B26">
-        <v>7.379855356951019</v>
+        <v>0.3026622004506922</v>
       </c>
       <c r="C26">
-        <v>-4.337864341016267</v>
+        <v>0.2048262499793671</v>
       </c>
       <c r="D26">
-        <v>1.163991501861784</v>
+        <v>-0.2046733599345767</v>
       </c>
       <c r="E26">
-        <v>2.366985490381471</v>
+        <v>0.7259246849823544</v>
       </c>
       <c r="F26">
-        <v>-1.793221861685196</v>
+        <v>-0.4292579831143313</v>
       </c>
       <c r="G26">
-        <v>-0.7881031631147259</v>
+        <v>1.802332902229133</v>
       </c>
       <c r="H26">
-        <v>0.7770671244775753</v>
+        <v>7.524261510995123</v>
       </c>
       <c r="I26">
-        <v>-0.6325586334312824</v>
+        <v>-4.431927832486674</v>
       </c>
       <c r="J26">
-        <v>-0.3327561879021573</v>
+        <v>1.185350211045997</v>
       </c>
       <c r="K26">
-        <v>0.2434076967236004</v>
+        <v>2.338856997192293</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1460,34 +1325,34 @@
         <v>35</v>
       </c>
       <c r="B27">
-        <v>-4.530340279742247</v>
+        <v>0.2773214709040386</v>
       </c>
       <c r="C27">
-        <v>0.7514471483405254</v>
+        <v>-0.2682241111637491</v>
       </c>
       <c r="D27">
-        <v>2.254528554276642</v>
+        <v>0.7792998334868486</v>
       </c>
       <c r="E27">
-        <v>-1.943910736288798</v>
+        <v>-0.4306235619234042</v>
       </c>
       <c r="F27">
-        <v>-0.8767732941863825</v>
+        <v>1.839468075212102</v>
       </c>
       <c r="G27">
-        <v>0.6820348970635053</v>
+        <v>7.541092445529947</v>
       </c>
       <c r="H27">
-        <v>-0.7147337970709565</v>
+        <v>-4.402073892816267</v>
       </c>
       <c r="I27">
-        <v>-0.415918526872244</v>
+        <v>1.207941399860122</v>
       </c>
       <c r="J27">
-        <v>0.1629193086549876</v>
+        <v>2.365903346848601</v>
       </c>
       <c r="K27">
-        <v>1.238305773514824</v>
+        <v>-1.77314146572578</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1495,34 +1360,34 @@
         <v>36</v>
       </c>
       <c r="B28">
-        <v>0.3629570978570982</v>
+        <v>-0.2672264875150854</v>
       </c>
       <c r="C28">
-        <v>2.200545984433298</v>
+        <v>0.6742776619777973</v>
       </c>
       <c r="D28">
-        <v>-1.866898713503996</v>
+        <v>-0.4472833318113997</v>
       </c>
       <c r="E28">
-        <v>-0.9171547244548632</v>
+        <v>1.783566999271859</v>
       </c>
       <c r="F28">
-        <v>0.6603617230231675</v>
+        <v>7.513849188289668</v>
       </c>
       <c r="G28">
-        <v>-0.7512301902155913</v>
+        <v>-4.443343164774617</v>
       </c>
       <c r="H28">
-        <v>-0.4507401246614074</v>
+        <v>1.176103574446404</v>
       </c>
       <c r="I28">
-        <v>0.1250321466037017</v>
+        <v>2.329154343996856</v>
       </c>
       <c r="J28">
-        <v>1.200771130029263</v>
+        <v>-1.806756459665137</v>
       </c>
       <c r="K28">
-        <v>0.7589640519691225</v>
+        <v>-0.8120292135765733</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1530,34 +1395,34 @@
         <v>37</v>
       </c>
       <c r="B29">
-        <v>2.428043571684958</v>
+        <v>0.6086405051256832</v>
       </c>
       <c r="C29">
-        <v>-1.923744081860244</v>
+        <v>-0.3644232557353271</v>
       </c>
       <c r="D29">
-        <v>-0.8984103598200469</v>
+        <v>1.781188140455046</v>
       </c>
       <c r="E29">
-        <v>0.6680217771819458</v>
+        <v>7.550279024990743</v>
       </c>
       <c r="F29">
-        <v>-0.7434228738270707</v>
+        <v>-4.42881090640906</v>
       </c>
       <c r="G29">
-        <v>-0.4425978068791742</v>
+        <v>1.200786221451445</v>
       </c>
       <c r="H29">
-        <v>0.133102838771267</v>
+        <v>2.348192544921957</v>
       </c>
       <c r="I29">
-        <v>1.208842969800109</v>
+        <v>-1.785060017843498</v>
       </c>
       <c r="J29">
-        <v>0.767038707712806</v>
+        <v>-0.7917929646320776</v>
       </c>
       <c r="K29">
-        <v>-0.04273410750109741</v>
+        <v>0.7790884278373404</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1565,34 +1430,34 @@
         <v>38</v>
       </c>
       <c r="B30">
-        <v>-1.283702982209084</v>
+        <v>-0.3948898833243785</v>
       </c>
       <c r="C30">
-        <v>-0.6787066475613199</v>
+        <v>1.628481131420173</v>
       </c>
       <c r="D30">
-        <v>0.5164574858372915</v>
+        <v>7.529214656055699</v>
       </c>
       <c r="E30">
-        <v>-0.7419185961583078</v>
+        <v>-4.481461319767186</v>
       </c>
       <c r="F30">
-        <v>-0.4161402356306824</v>
+        <v>1.178210632146015</v>
       </c>
       <c r="G30">
-        <v>0.1284218879199735</v>
+        <v>2.317612431445096</v>
       </c>
       <c r="H30">
-        <v>1.207505446151532</v>
+        <v>-1.808749910289256</v>
       </c>
       <c r="I30">
-        <v>0.7700133058531633</v>
+        <v>-0.8174812271700064</v>
       </c>
       <c r="J30">
-        <v>-0.04133774697456952</v>
+        <v>0.7549822662900931</v>
       </c>
       <c r="K30">
-        <v>0.2384627866671519</v>
+        <v>-0.6576713102639671</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1600,34 +1465,34 @@
         <v>39</v>
       </c>
       <c r="B31">
-        <v>-1.197675863070439</v>
+        <v>1.648811223744012</v>
       </c>
       <c r="C31">
-        <v>0.5356924865785363</v>
+        <v>7.622581430282057</v>
       </c>
       <c r="D31">
-        <v>-0.5381109442644381</v>
+        <v>-4.455922872625923</v>
       </c>
       <c r="E31">
-        <v>-0.3853234497641088</v>
+        <v>1.21480444549565</v>
       </c>
       <c r="F31">
-        <v>0.181392747351546</v>
+        <v>2.342496555762665</v>
       </c>
       <c r="G31">
-        <v>1.286986457368933</v>
+        <v>-1.782592252323979</v>
       </c>
       <c r="H31">
-        <v>0.8363232006177169</v>
+        <v>-0.7931859697360647</v>
       </c>
       <c r="I31">
-        <v>0.024276627359022</v>
+        <v>0.7792893745013223</v>
       </c>
       <c r="J31">
-        <v>0.3068036839354784</v>
+        <v>-0.6336141437637736</v>
       </c>
       <c r="K31">
-        <v>0.3452398770285351</v>
+        <v>-0.3322918422828926</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1635,34 +1500,34 @@
         <v>40</v>
       </c>
       <c r="B32">
-        <v>0.1111072762275906</v>
+        <v>7.430105491556078</v>
       </c>
       <c r="C32">
-        <v>-0.5836219151574396</v>
+        <v>-4.868467226147181</v>
       </c>
       <c r="D32">
-        <v>-0.2495287614539637</v>
+        <v>1.102347509390821</v>
       </c>
       <c r="E32">
-        <v>0.1818007604083866</v>
+        <v>2.191807681159063</v>
       </c>
       <c r="F32">
-        <v>1.29928904048951</v>
+        <v>-1.871262383395635</v>
       </c>
       <c r="G32">
-        <v>0.8704684707559575</v>
+        <v>-0.8882181971501348</v>
       </c>
       <c r="H32">
-        <v>0.0486228951786212</v>
+        <v>0.6971142108616482</v>
       </c>
       <c r="I32">
-        <v>0.3303481646628407</v>
+        <v>-0.7167764827338602</v>
       </c>
       <c r="J32">
-        <v>0.3709308429037992</v>
+        <v>-0.4127802303515054</v>
       </c>
       <c r="K32">
-        <v>0.2613527349100159</v>
+        <v>0.162565936662602</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1670,34 +1535,34 @@
         <v>41</v>
       </c>
       <c r="B33">
-        <v>-0.7012274012039439</v>
+        <v>-5.256957276630608</v>
       </c>
       <c r="C33">
-        <v>-0.1227094658981103</v>
+        <v>1.048364939547477</v>
       </c>
       <c r="D33">
-        <v>0.2311161430472896</v>
+        <v>2.268819703943865</v>
       </c>
       <c r="E33">
-        <v>1.318729591046718</v>
+        <v>-1.911643813664116</v>
       </c>
       <c r="F33">
-        <v>0.9167922810174671</v>
+        <v>-0.9098913711904726</v>
       </c>
       <c r="G33">
-        <v>0.0928018501005943</v>
+        <v>0.6606178177170134</v>
       </c>
       <c r="H33">
-        <v>0.3693752957908104</v>
+        <v>-0.7515980805230237</v>
       </c>
       <c r="I33">
-        <v>0.4120855740721988</v>
+        <v>-0.4506673924027912</v>
       </c>
       <c r="J33">
-        <v>0.3029228330942274</v>
+        <v>0.1250312931770411</v>
       </c>
       <c r="K33">
-        <v>0.4625557123880896</v>
+        <v>1.200768223272738</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1705,34 +1570,34 @@
         <v>42</v>
       </c>
       <c r="B34">
-        <v>-0.3425203228057133</v>
+        <v>1.275862526799136</v>
       </c>
       <c r="C34">
-        <v>0.1370775318625127</v>
+        <v>2.211974335587617</v>
       </c>
       <c r="D34">
-        <v>1.367787377993229</v>
+        <v>-1.8928994490293</v>
       </c>
       <c r="E34">
-        <v>0.897749153982319</v>
+        <v>-0.9022313170316942</v>
       </c>
       <c r="F34">
-        <v>0.06624080275473918</v>
+        <v>0.6684251341055339</v>
       </c>
       <c r="G34">
-        <v>0.3584888978363171</v>
+        <v>-0.7434557627407905</v>
       </c>
       <c r="H34">
-        <v>0.3979293538866946</v>
+        <v>-0.4425967002352259</v>
       </c>
       <c r="I34">
-        <v>0.2866738256550034</v>
+        <v>0.1331031329478876</v>
       </c>
       <c r="J34">
-        <v>0.4475838607479658</v>
+        <v>1.208842879016422</v>
       </c>
       <c r="K34">
-        <v>0.3558291479633751</v>
+        <v>0.7670387248225337</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1740,34 +1605,31 @@
         <v>43</v>
       </c>
       <c r="B35">
-        <v>-0.0860618221422374</v>
+        <v>2.852015435238776</v>
       </c>
       <c r="C35">
-        <v>1.383680499826445</v>
+        <v>-1.673195736770573</v>
       </c>
       <c r="D35">
-        <v>0.9316780121720623</v>
+        <v>-1.053795608376349</v>
       </c>
       <c r="E35">
-        <v>0.05897046649128798</v>
+        <v>0.669929411774297</v>
       </c>
       <c r="F35">
-        <v>0.3601668555229699</v>
+        <v>-0.7169981914922987</v>
       </c>
       <c r="G35">
-        <v>0.4031093172402048</v>
+        <v>-0.4472776510865194</v>
       </c>
       <c r="H35">
-        <v>0.2896113453718245</v>
+        <v>0.1317656092993103</v>
       </c>
       <c r="I35">
-        <v>0.4506501151830729</v>
+        <v>1.211817477156779</v>
       </c>
       <c r="J35">
-        <v>0.3591583247184746</v>
-      </c>
-      <c r="K35">
-        <v>0.1426467362286725</v>
+        <v>0.7684350853490616</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1775,34 +1637,28 @@
         <v>44</v>
       </c>
       <c r="B36">
-        <v>1.32438096272888</v>
+        <v>-2.192164952279692</v>
       </c>
       <c r="C36">
-        <v>0.9220717593293094</v>
+        <v>-1.034560607635104</v>
       </c>
       <c r="D36">
-        <v>0.05516176695940692</v>
+        <v>0.8737370636681667</v>
       </c>
       <c r="E36">
-        <v>0.3462228873385728</v>
+        <v>-0.686181405625725</v>
       </c>
       <c r="F36">
-        <v>0.3919083678234757</v>
+        <v>-0.3943067916549469</v>
       </c>
       <c r="G36">
-        <v>0.279081115336784</v>
+        <v>0.2112466205167118</v>
       </c>
       <c r="H36">
-        <v>0.4394045974845401</v>
+        <v>1.278127371921333</v>
       </c>
       <c r="I36">
-        <v>0.3480690763157853</v>
-      </c>
-      <c r="J36">
-        <v>0.1316228026260586</v>
-      </c>
-      <c r="K36">
-        <v>-0.1859511542710725</v>
+        <v>0.8340494596826531</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1810,34 +1666,25 @@
         <v>45</v>
       </c>
       <c r="B37">
-        <v>1.231661280012998</v>
+        <v>-1.459145817986049</v>
       </c>
       <c r="C37">
-        <v>0.1923542655531081</v>
+        <v>0.8282260927751652</v>
       </c>
       <c r="D37">
-        <v>0.2120950120634008</v>
+        <v>-0.55038671731558</v>
       </c>
       <c r="E37">
-        <v>0.3792844388692188</v>
+        <v>-0.3938987785981063</v>
       </c>
       <c r="F37">
-        <v>0.2817062399742848</v>
+        <v>0.2235492036372886</v>
       </c>
       <c r="G37">
-        <v>0.4128725976105417</v>
+        <v>1.312272642059573</v>
       </c>
       <c r="H37">
-        <v>0.3278316390862868</v>
-      </c>
-      <c r="I37">
-        <v>0.115191224502725</v>
-      </c>
-      <c r="J37">
-        <v>-0.2048571290824772</v>
-      </c>
-      <c r="K37">
-        <v>0.0874596612855153</v>
+        <v>0.8583957275022522</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1845,34 +1692,22 @@
         <v>46</v>
       </c>
       <c r="B38">
-        <v>0.4395685548510502</v>
+        <v>0.7106206067286608</v>
       </c>
       <c r="C38">
-        <v>0.3295146744469067</v>
+        <v>-0.4235674217597265</v>
       </c>
       <c r="D38">
-        <v>0.2496258682164595</v>
+        <v>-0.3445833959592033</v>
       </c>
       <c r="E38">
-        <v>0.2524589704246166</v>
+        <v>0.2429897541944965</v>
       </c>
       <c r="F38">
-        <v>0.4009578371209045</v>
+        <v>1.358596452321083</v>
       </c>
       <c r="G38">
-        <v>0.2911594551203453</v>
-      </c>
-      <c r="H38">
-        <v>0.0826965450510023</v>
-      </c>
-      <c r="I38">
-        <v>-0.2338185657243826</v>
-      </c>
-      <c r="J38">
-        <v>0.05661072513200721</v>
-      </c>
-      <c r="K38">
-        <v>0.05082837753847452</v>
+        <v>0.9025746824242253</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1880,31 +1715,19 @@
         <v>47</v>
       </c>
       <c r="B39">
-        <v>0.4940016924669799</v>
+        <v>-0.6433782786673296</v>
       </c>
       <c r="C39">
-        <v>0.2435019605816055</v>
+        <v>-0.4386220071439803</v>
       </c>
       <c r="D39">
-        <v>0.1846177915208531</v>
+        <v>0.2920475411410074</v>
       </c>
       <c r="E39">
-        <v>0.3817355685122225</v>
+        <v>1.339553325285935</v>
       </c>
       <c r="F39">
-        <v>0.2694643278504105</v>
-      </c>
-      <c r="G39">
-        <v>0.05279352234866391</v>
-      </c>
-      <c r="H39">
-        <v>-0.2609469146136283</v>
-      </c>
-      <c r="I39">
-        <v>0.03020777340054021</v>
-      </c>
-      <c r="J39">
-        <v>0.0237088883640342</v>
+        <v>0.8760136350783703</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1912,28 +1735,16 @@
         <v>48</v>
       </c>
       <c r="B40">
-        <v>0.3242193037695071</v>
+        <v>-0.6617613611487303</v>
       </c>
       <c r="C40">
-        <v>0.2411227133504108</v>
+        <v>0.3079406629742235</v>
       </c>
       <c r="D40">
-        <v>0.3403436528977617</v>
+        <v>1.373482183475678</v>
       </c>
       <c r="E40">
-        <v>0.2626714274509484</v>
-      </c>
-      <c r="F40">
-        <v>0.05328994754997651</v>
-      </c>
-      <c r="G40">
-        <v>-0.2690417342015303</v>
-      </c>
-      <c r="H40">
-        <v>0.02342416416301032</v>
-      </c>
-      <c r="I40">
-        <v>0.0180969010904955</v>
+        <v>0.8687432988149191</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1941,25 +1752,13 @@
         <v>49</v>
       </c>
       <c r="B41">
-        <v>0.394042449657095</v>
+        <v>0.2486411258766588</v>
       </c>
       <c r="C41">
-        <v>0.3427404628639549</v>
+        <v>1.363875930632925</v>
       </c>
       <c r="D41">
-        <v>0.2242390996078211</v>
-      </c>
-      <c r="E41">
-        <v>0.055485660899395</v>
-      </c>
-      <c r="F41">
-        <v>-0.2720704482389552</v>
-      </c>
-      <c r="G41">
-        <v>0.0145334856766528</v>
-      </c>
-      <c r="H41">
-        <v>0.01201288657082469</v>
+        <v>0.864934599283038</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1967,22 +1766,10 @@
         <v>50</v>
       </c>
       <c r="B42">
-        <v>0.5010464375566571</v>
+        <v>1.673465451316615</v>
       </c>
       <c r="C42">
-        <v>0.2455732575174918</v>
-      </c>
-      <c r="D42">
-        <v>0.0184750902009912</v>
-      </c>
-      <c r="E42">
-        <v>-0.2660812326956903</v>
-      </c>
-      <c r="F42">
-        <v>0.0178693586145138</v>
-      </c>
-      <c r="G42">
-        <v>0.008329329357405907</v>
+        <v>1.002127097876739</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1990,74 +1777,57 @@
         <v>51</v>
       </c>
       <c r="B43">
-        <v>0.4070253497240054</v>
-      </c>
-      <c r="C43">
-        <v>0.0588001744469144</v>
-      </c>
-      <c r="D43">
-        <v>-0.3053830765868398</v>
-      </c>
-      <c r="E43">
-        <v>0.02453217703100372</v>
-      </c>
-      <c r="F43">
-        <v>0.01487494769599448</v>
+        <v>1.249341387174681</v>
       </c>
     </row>
     <row r="44" spans="1:11">
       <c r="A44" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B44">
-        <v>0.1842008206034934</v>
-      </c>
-      <c r="C44">
-        <v>-0.2531160710273121</v>
-      </c>
-      <c r="D44">
-        <v>0.003457300861651802</v>
-      </c>
-      <c r="E44">
-        <v>0.0309764398468147</v>
-      </c>
     </row>
     <row r="45" spans="1:11">
       <c r="A45" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B45">
-        <v>-0.3665930774731743</v>
-      </c>
-      <c r="C45">
-        <v>0.101671561665663</v>
-      </c>
-      <c r="D45">
-        <v>0.04785045814007061</v>
-      </c>
     </row>
     <row r="46" spans="1:11">
       <c r="A46" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B46">
-        <v>-0.1157322460162614</v>
-      </c>
-      <c r="C46">
-        <v>0.09802926010601931</v>
-      </c>
     </row>
     <row r="47" spans="1:11">
       <c r="A47" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B47">
-        <v>0.2279386281717039</v>
-      </c>
     </row>
     <row r="48" spans="1:11">
       <c r="A48" s="1" t="s">
         <v>56</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" s="1" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>

--- a/3_Component_Results/DOMUSE/Data/naive_err/AR2_50_9_qoq_errors_first_eval.xlsx
+++ b/3_Component_Results/DOMUSE/Data/naive_err/AR2_50_9_qoq_errors_first_eval.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
   <si>
     <t>Q0</t>
   </si>
@@ -44,21 +44,6 @@
   </si>
   <si>
     <t>Q9</t>
-  </si>
-  <si>
-    <t>2007-10-01 00:00:00_diff</t>
-  </si>
-  <si>
-    <t>2008-04-01 00:00:00_diff</t>
-  </si>
-  <si>
-    <t>2008-10-01 00:00:00_diff</t>
-  </si>
-  <si>
-    <t>2009-04-01 00:00:00_diff</t>
-  </si>
-  <si>
-    <t>2009-10-01 00:00:00_diff</t>
   </si>
   <si>
     <t>2010-04-01 00:00:00_diff</t>
@@ -557,7 +542,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K53"/>
+  <dimension ref="A1:K48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -599,60 +584,210 @@
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="B2">
+        <v>-2.599775093864654</v>
+      </c>
+      <c r="C2">
+        <v>0.4213078533922215</v>
+      </c>
+      <c r="D2">
+        <v>-0.0851732134718878</v>
+      </c>
+      <c r="E2">
+        <v>-0.5545455541496284</v>
+      </c>
+      <c r="F2">
+        <v>-0.2341436367370153</v>
+      </c>
+      <c r="G2">
+        <v>-0.02969014145458965</v>
+      </c>
+      <c r="H2">
+        <v>-0.1524194508597342</v>
+      </c>
+      <c r="I2">
+        <v>0.5892983349069034</v>
+      </c>
+      <c r="J2">
+        <v>0.5410791075487134</v>
+      </c>
+      <c r="K2">
+        <v>0.2469615835596112</v>
+      </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="B3">
+        <v>0.7599138577479545</v>
+      </c>
+      <c r="C3">
+        <v>-0.8296272591627797</v>
+      </c>
+      <c r="D3">
+        <v>0.183025357444689</v>
+      </c>
+      <c r="E3">
+        <v>-0.1193166304426081</v>
+      </c>
+      <c r="F3">
+        <v>0.1037808198054395</v>
+      </c>
+      <c r="G3">
+        <v>0.5999655385994425</v>
+      </c>
+      <c r="H3">
+        <v>0.724112664506922</v>
+      </c>
+      <c r="I3">
+        <v>0.3076557451057896</v>
+      </c>
+      <c r="J3">
+        <v>0.3331284835103464</v>
+      </c>
+      <c r="K3">
+        <v>0.3012303191900245</v>
+      </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="B4">
+        <v>-0.1932672371045038</v>
+      </c>
+      <c r="C4">
+        <v>0.04324661062325436</v>
+      </c>
+      <c r="D4">
+        <v>-0.01161065538656181</v>
+      </c>
+      <c r="E4">
+        <v>0.6246649691719768</v>
+      </c>
+      <c r="F4">
+        <v>0.6777283932422284</v>
+      </c>
+      <c r="G4">
+        <v>0.297938859626624</v>
+      </c>
+      <c r="H4">
+        <v>0.3044483231023983</v>
+      </c>
+      <c r="I4">
+        <v>0.2825089781401424</v>
+      </c>
+      <c r="J4">
+        <v>-0.0973857149104142</v>
+      </c>
+      <c r="K4">
+        <v>-0.4061154638499449</v>
+      </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="B5">
+        <v>0.01885790495154901</v>
+      </c>
+      <c r="C5">
+        <v>0.6365171369896647</v>
+      </c>
+      <c r="D5">
+        <v>0.68016851135583</v>
+      </c>
+      <c r="E5">
+        <v>0.31279625129615</v>
+      </c>
+      <c r="F5">
+        <v>0.3063033874885817</v>
+      </c>
+      <c r="G5">
+        <v>0.2942571669794643</v>
+      </c>
+      <c r="H5">
+        <v>-0.0931641912349494</v>
+      </c>
+      <c r="I5">
+        <v>-0.3966786672555065</v>
+      </c>
+      <c r="J5">
+        <v>0.6137917488812377</v>
+      </c>
+      <c r="K5">
+        <v>-1.55398144811108</v>
+      </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="B6">
+        <v>0.7680233526332453</v>
+      </c>
+      <c r="C6">
+        <v>0.08665846398411101</v>
+      </c>
+      <c r="D6">
+        <v>0.3550562147590637</v>
+      </c>
+      <c r="E6">
+        <v>0.1996620052474151</v>
+      </c>
+      <c r="F6">
+        <v>-0.0792244915534977</v>
+      </c>
+      <c r="G6">
+        <v>-0.4452253649762511</v>
+      </c>
+      <c r="H6">
+        <v>0.6091242210487386</v>
+      </c>
+      <c r="I6">
+        <v>-1.585289023135289</v>
+      </c>
+      <c r="J6">
+        <v>0.4557940629208951</v>
+      </c>
+      <c r="K6">
+        <v>0.4460097931269203</v>
+      </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B7">
-        <v>-2.599775093864654</v>
+        <v>0.1149817136733693</v>
       </c>
       <c r="C7">
-        <v>0.4213078533922215</v>
+        <v>0.1886961826570769</v>
       </c>
       <c r="D7">
-        <v>-0.0851732134718878</v>
+        <v>-0.1743510322417958</v>
       </c>
       <c r="E7">
-        <v>-0.5545455541496284</v>
+        <v>-0.4576880558317372</v>
       </c>
       <c r="F7">
-        <v>-0.2341436367370153</v>
+        <v>0.5575615649551221</v>
       </c>
       <c r="G7">
-        <v>-0.02969014145458965</v>
+        <v>-1.605488280710164</v>
       </c>
       <c r="H7">
-        <v>-0.1524194508597342</v>
+        <v>0.4185686116426709</v>
       </c>
       <c r="I7">
-        <v>0.5892983349069034</v>
+        <v>0.4210803793827069</v>
       </c>
       <c r="J7">
-        <v>0.5410791075487134</v>
+        <v>-0.8032415029445406</v>
       </c>
       <c r="K7">
-        <v>0.2469615835596112</v>
+        <v>-0.2573748024414758</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -660,34 +795,34 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>0.7599138577479545</v>
+        <v>-0.1984711623028061</v>
       </c>
       <c r="C8">
-        <v>-0.8296272591627797</v>
+        <v>-0.522343575111026</v>
       </c>
       <c r="D8">
-        <v>0.183025357444689</v>
+        <v>0.5457778617256782</v>
       </c>
       <c r="E8">
-        <v>-0.1193166304426081</v>
+        <v>-1.635245477730326</v>
       </c>
       <c r="F8">
-        <v>0.1037808198054395</v>
+        <v>0.4063622901268292</v>
       </c>
       <c r="G8">
-        <v>0.5999655385994425</v>
+        <v>0.4015824023328216</v>
       </c>
       <c r="H8">
-        <v>0.724112664506922</v>
+        <v>-0.8167612454749933</v>
       </c>
       <c r="I8">
-        <v>0.3076557451057896</v>
+        <v>-0.2737209468961671</v>
       </c>
       <c r="J8">
-        <v>0.3331284835103464</v>
+        <v>0.4522297872112956</v>
       </c>
       <c r="K8">
-        <v>0.3012303191900245</v>
+        <v>-0.49062832164035</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -695,34 +830,34 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>-0.1932672371045038</v>
+        <v>0.578229357260996</v>
       </c>
       <c r="C9">
-        <v>0.04324661062325436</v>
+        <v>-1.451239549016748</v>
       </c>
       <c r="D9">
-        <v>-0.01161065538656181</v>
+        <v>0.4322360342429518</v>
       </c>
       <c r="E9">
-        <v>0.6246649691719768</v>
+        <v>0.4897976924316668</v>
       </c>
       <c r="F9">
-        <v>0.6777283932422284</v>
+        <v>-0.7812097065401281</v>
       </c>
       <c r="G9">
-        <v>0.297938859626624</v>
+        <v>-0.2140188449768187</v>
       </c>
       <c r="H9">
-        <v>0.3044483231023983</v>
+        <v>0.4939837660135075</v>
       </c>
       <c r="I9">
-        <v>0.2825089781401424</v>
+        <v>-0.4398144183660089</v>
       </c>
       <c r="J9">
-        <v>-0.0973857149104142</v>
+        <v>-0.5732498698339226</v>
       </c>
       <c r="K9">
-        <v>-0.4061154638499449</v>
+        <v>-0.5255200426117579</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -730,34 +865,34 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>0.01885790495154901</v>
+        <v>0.03913348239479289</v>
       </c>
       <c r="C10">
-        <v>0.6365171369896647</v>
+        <v>1.027270011939213</v>
       </c>
       <c r="D10">
-        <v>0.68016851135583</v>
+        <v>-0.9662182088689218</v>
       </c>
       <c r="E10">
-        <v>0.31279625129615</v>
+        <v>0.006854978822963043</v>
       </c>
       <c r="F10">
-        <v>0.3063033874885817</v>
+        <v>0.4253527326840144</v>
       </c>
       <c r="G10">
-        <v>0.2942571669794643</v>
+        <v>-0.3358070042503943</v>
       </c>
       <c r="H10">
-        <v>-0.0931641912349494</v>
+        <v>-0.5867795836918103</v>
       </c>
       <c r="I10">
-        <v>-0.3966786672555065</v>
+        <v>-0.4666029924297193</v>
       </c>
       <c r="J10">
-        <v>0.6137917488812377</v>
+        <v>0.4288730018125405</v>
       </c>
       <c r="K10">
-        <v>-1.55398144811108</v>
+        <v>-0.1606097620349077</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -765,34 +900,34 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>0.7680233526332453</v>
+        <v>-0.8655550547631281</v>
       </c>
       <c r="C11">
-        <v>0.08665846398411101</v>
+        <v>-0.3643995038402464</v>
       </c>
       <c r="D11">
-        <v>0.3550562147590637</v>
+        <v>0.460959376748889</v>
       </c>
       <c r="E11">
-        <v>0.1996620052474151</v>
+        <v>-0.5052523480449113</v>
       </c>
       <c r="F11">
-        <v>-0.0792244915534977</v>
+        <v>-0.6030493650709703</v>
       </c>
       <c r="G11">
-        <v>-0.4452253649762511</v>
+        <v>-0.5684950311133089</v>
       </c>
       <c r="H11">
-        <v>0.6091242210487386</v>
+        <v>0.3862892789456705</v>
       </c>
       <c r="I11">
-        <v>-1.585289023135289</v>
+        <v>-0.238319052841212</v>
       </c>
       <c r="J11">
-        <v>0.4557940629208951</v>
+        <v>-0.4163595244981116</v>
       </c>
       <c r="K11">
-        <v>0.4460097931269203</v>
+        <v>0.0805329408679176</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -800,34 +935,34 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>0.1149817136733693</v>
+        <v>0.6481750507136302</v>
       </c>
       <c r="C12">
-        <v>0.1886961826570769</v>
+        <v>-0.4116222461567253</v>
       </c>
       <c r="D12">
-        <v>-0.1743510322417958</v>
+        <v>-0.5414319719249838</v>
       </c>
       <c r="E12">
-        <v>-0.4576880558317372</v>
+        <v>-0.5241108785450015</v>
       </c>
       <c r="F12">
-        <v>0.5575615649551221</v>
+        <v>0.4246184323196733</v>
       </c>
       <c r="G12">
-        <v>-1.605488280710164</v>
+        <v>-0.2030005133752568</v>
       </c>
       <c r="H12">
-        <v>0.4185686116426709</v>
+        <v>-0.3823142582379787</v>
       </c>
       <c r="I12">
-        <v>0.4210803793827069</v>
+        <v>0.1141332747280269</v>
       </c>
       <c r="J12">
-        <v>-0.8032415029445406</v>
+        <v>-0.8852847537018906</v>
       </c>
       <c r="K12">
-        <v>-0.2573748024414758</v>
+        <v>-0.152826881537631</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -835,34 +970,34 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>-0.1984711623028061</v>
+        <v>-0.7565604878827148</v>
       </c>
       <c r="C13">
-        <v>-0.522343575111026</v>
+        <v>-0.4057663831855379</v>
       </c>
       <c r="D13">
-        <v>0.5457778617256782</v>
+        <v>0.3522497996303807</v>
       </c>
       <c r="E13">
-        <v>-1.635245477730326</v>
+        <v>-0.1715355603405611</v>
       </c>
       <c r="F13">
-        <v>0.4063622901268292</v>
+        <v>-0.4092831094845341</v>
       </c>
       <c r="G13">
-        <v>0.4015824023328216</v>
+        <v>0.1193314088729555</v>
       </c>
       <c r="H13">
-        <v>-0.8167612454749933</v>
+        <v>-0.8980522263979865</v>
       </c>
       <c r="I13">
-        <v>-0.2737209468961671</v>
+        <v>-0.1556535701336084</v>
       </c>
       <c r="J13">
-        <v>0.4522297872112956</v>
+        <v>0.1348417040676331</v>
       </c>
       <c r="K13">
-        <v>-0.49062832164035</v>
+        <v>-0.1120512842982363</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -870,34 +1005,34 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>0.578229357260996</v>
+        <v>0.4998011962756446</v>
       </c>
       <c r="C14">
-        <v>-1.451239549016748</v>
+        <v>-0.07342742942165981</v>
       </c>
       <c r="D14">
-        <v>0.4322360342429518</v>
+        <v>-0.3598965770760573</v>
       </c>
       <c r="E14">
-        <v>0.4897976924316668</v>
+        <v>0.1625872521950072</v>
       </c>
       <c r="F14">
-        <v>-0.7812097065401281</v>
+        <v>-0.864103690938309</v>
       </c>
       <c r="G14">
-        <v>-0.2140188449768187</v>
+        <v>-0.1222990917425359</v>
       </c>
       <c r="H14">
-        <v>0.4939837660135075</v>
+        <v>0.1664338649438454</v>
       </c>
       <c r="I14">
-        <v>-0.4398144183660089</v>
+        <v>-0.08049589489028602</v>
       </c>
       <c r="J14">
-        <v>-0.5732498698339226</v>
+        <v>-0.5730541687050947</v>
       </c>
       <c r="K14">
-        <v>-0.5255200426117579</v>
+        <v>-0.4958239707762366</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -905,34 +1040,34 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>0.03913348239479289</v>
+        <v>-0.4908112086026729</v>
       </c>
       <c r="C15">
-        <v>1.027270011939213</v>
+        <v>0.1874428494022752</v>
       </c>
       <c r="D15">
-        <v>-0.9662182088689218</v>
+        <v>-0.9058127297462113</v>
       </c>
       <c r="E15">
-        <v>0.006854978822963043</v>
+        <v>-0.1202113871632399</v>
       </c>
       <c r="F15">
-        <v>0.4253527326840144</v>
+        <v>0.1477633332452291</v>
       </c>
       <c r="G15">
-        <v>-0.3358070042503943</v>
+        <v>-0.0865810009705153</v>
       </c>
       <c r="H15">
-        <v>-0.5867795836918103</v>
+        <v>-0.5854697566684117</v>
       </c>
       <c r="I15">
-        <v>-0.4666029924297193</v>
+        <v>-0.5045745169269311</v>
       </c>
       <c r="J15">
-        <v>0.4288730018125405</v>
+        <v>0.2842444055692547</v>
       </c>
       <c r="K15">
-        <v>-0.1606097620349077</v>
+        <v>0.094314310433458</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -940,34 +1075,34 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <v>-0.8655550547631281</v>
+        <v>-0.7610382668704541</v>
       </c>
       <c r="C16">
-        <v>-0.3643995038402464</v>
+        <v>-0.1697185737259005</v>
       </c>
       <c r="D16">
-        <v>0.460959376748889</v>
+        <v>0.1975744017561182</v>
       </c>
       <c r="E16">
-        <v>-0.5052523480449113</v>
+        <v>-0.09296950593211634</v>
       </c>
       <c r="F16">
-        <v>-0.6030493650709703</v>
+        <v>-0.5624135302179352</v>
       </c>
       <c r="G16">
-        <v>-0.5684950311133089</v>
+        <v>-0.4978696587057602</v>
       </c>
       <c r="H16">
-        <v>0.3862892789456705</v>
+        <v>0.2996381065732735</v>
       </c>
       <c r="I16">
-        <v>-0.238319052841212</v>
+        <v>0.1049343773025755</v>
       </c>
       <c r="J16">
-        <v>-0.4163595244981116</v>
+        <v>-0.1810904405051886</v>
       </c>
       <c r="K16">
-        <v>0.0805329408679176</v>
+        <v>0.7100950095189205</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -975,34 +1110,34 @@
         <v>25</v>
       </c>
       <c r="B17">
-        <v>0.6481750507136302</v>
+        <v>0.3853124329624699</v>
       </c>
       <c r="C17">
-        <v>-0.4116222461567253</v>
+        <v>-0.0636353541259792</v>
       </c>
       <c r="D17">
-        <v>-0.5414319719249838</v>
+        <v>-0.5057317212606856</v>
       </c>
       <c r="E17">
-        <v>-0.5241108785450015</v>
+        <v>-0.4866080797737675</v>
       </c>
       <c r="F17">
-        <v>0.4246184323196733</v>
+        <v>0.3244420063798164</v>
       </c>
       <c r="G17">
-        <v>-0.2030005133752568</v>
+        <v>0.1159782022070233</v>
       </c>
       <c r="H17">
-        <v>-0.3823142582379787</v>
+        <v>-0.1646040460938459</v>
       </c>
       <c r="I17">
-        <v>0.1141332747280269</v>
+        <v>0.7222453785596309</v>
       </c>
       <c r="J17">
-        <v>-0.8852847537018906</v>
+        <v>-0.3978929871876867</v>
       </c>
       <c r="K17">
-        <v>-0.152826881537631</v>
+        <v>1.818769300392457</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1010,34 +1145,34 @@
         <v>26</v>
       </c>
       <c r="B18">
-        <v>-0.7565604878827148</v>
+        <v>-0.0411574570261935</v>
       </c>
       <c r="C18">
-        <v>-0.4057663831855379</v>
+        <v>-0.6196320408848983</v>
       </c>
       <c r="D18">
-        <v>0.3522497996303807</v>
+        <v>-0.4817670185010929</v>
       </c>
       <c r="E18">
-        <v>-0.1715355603405611</v>
+        <v>0.2802806761101042</v>
       </c>
       <c r="F18">
-        <v>-0.4092831094845341</v>
+        <v>0.1075973650542067</v>
       </c>
       <c r="G18">
-        <v>0.1193314088729555</v>
+        <v>-0.1897256205557853</v>
       </c>
       <c r="H18">
-        <v>-0.8980522263979865</v>
+        <v>0.7081629777537968</v>
       </c>
       <c r="I18">
-        <v>-0.1556535701336084</v>
+        <v>-0.4175472274164846</v>
       </c>
       <c r="J18">
-        <v>0.1348417040676331</v>
+        <v>1.802574501419392</v>
       </c>
       <c r="K18">
-        <v>-0.1120512842982363</v>
+        <v>7.532660084419956</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1045,34 +1180,34 @@
         <v>27</v>
       </c>
       <c r="B19">
-        <v>0.4998011962756446</v>
+        <v>-0.6322123074925011</v>
       </c>
       <c r="C19">
-        <v>-0.07342742942165981</v>
+        <v>-0.4742381362309798</v>
       </c>
       <c r="D19">
-        <v>-0.3598965770760573</v>
+        <v>0.2721415675329692</v>
       </c>
       <c r="E19">
-        <v>0.1625872521950072</v>
+        <v>0.106451857864849</v>
       </c>
       <c r="F19">
-        <v>-0.864103690938309</v>
+        <v>-0.1955958842297873</v>
       </c>
       <c r="G19">
-        <v>-0.1222990917425359</v>
+        <v>0.7046241218273783</v>
       </c>
       <c r="H19">
-        <v>0.1664338649438454</v>
+        <v>-0.4225415964970449</v>
       </c>
       <c r="I19">
-        <v>-0.08049589489028602</v>
+        <v>1.798340658913301</v>
       </c>
       <c r="J19">
-        <v>-0.5730541687050947</v>
+        <v>7.527972027331272</v>
       </c>
       <c r="K19">
-        <v>-0.4958239707762366</v>
+        <v>-4.36761069155567</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1080,34 +1215,34 @@
         <v>28</v>
       </c>
       <c r="B20">
-        <v>-0.4908112086026729</v>
+        <v>-0.5544345664476722</v>
       </c>
       <c r="C20">
-        <v>0.1874428494022752</v>
+        <v>0.4223997105967412</v>
       </c>
       <c r="D20">
-        <v>-0.9058127297462113</v>
+        <v>0.06519917072402209</v>
       </c>
       <c r="E20">
-        <v>-0.1202113871632399</v>
+        <v>-0.1579346443787821</v>
       </c>
       <c r="F20">
-        <v>0.1477633332452291</v>
+        <v>0.6883297515268441</v>
       </c>
       <c r="G20">
-        <v>-0.0865810009705153</v>
+        <v>-0.4134903260564207</v>
       </c>
       <c r="H20">
-        <v>-0.5854697566684117</v>
+        <v>1.791734611061779</v>
       </c>
       <c r="I20">
-        <v>-0.5045745169269311</v>
+        <v>7.529266551606639</v>
       </c>
       <c r="J20">
-        <v>0.2842444055692547</v>
+        <v>-4.370940361648667</v>
       </c>
       <c r="K20">
-        <v>0.094314310433458</v>
+        <v>0.5636000270773455</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1115,34 +1250,34 @@
         <v>29</v>
       </c>
       <c r="B21">
-        <v>-0.7610382668704541</v>
+        <v>0.3026622004506922</v>
       </c>
       <c r="C21">
-        <v>-0.1697185737259005</v>
+        <v>0.2048262499793671</v>
       </c>
       <c r="D21">
-        <v>0.1975744017561182</v>
+        <v>-0.2046733599345767</v>
       </c>
       <c r="E21">
-        <v>-0.09296950593211634</v>
+        <v>0.7259246849823544</v>
       </c>
       <c r="F21">
-        <v>-0.5624135302179352</v>
+        <v>-0.4292579831143313</v>
       </c>
       <c r="G21">
-        <v>-0.4978696587057602</v>
+        <v>1.802332902229133</v>
       </c>
       <c r="H21">
-        <v>0.2996381065732735</v>
+        <v>7.524261510995123</v>
       </c>
       <c r="I21">
-        <v>0.1049343773025755</v>
+        <v>-4.367859906123281</v>
       </c>
       <c r="J21">
-        <v>-0.1810904405051886</v>
+        <v>0.5620631137850272</v>
       </c>
       <c r="K21">
-        <v>0.7100950095189205</v>
+        <v>1.565731669059103</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1150,34 +1285,34 @@
         <v>30</v>
       </c>
       <c r="B22">
-        <v>0.3853124329624699</v>
+        <v>0.2773214709040386</v>
       </c>
       <c r="C22">
-        <v>-0.0636353541259792</v>
+        <v>-0.2682241111637491</v>
       </c>
       <c r="D22">
-        <v>-0.5057317212606856</v>
+        <v>0.7792998334868486</v>
       </c>
       <c r="E22">
-        <v>-0.4866080797737675</v>
+        <v>-0.4306235619234042</v>
       </c>
       <c r="F22">
-        <v>0.3244420063798164</v>
+        <v>1.839468075212102</v>
       </c>
       <c r="G22">
-        <v>0.1159782022070233</v>
+        <v>7.541092445529947</v>
       </c>
       <c r="H22">
-        <v>-0.1646040460938459</v>
+        <v>-4.338005966452874</v>
       </c>
       <c r="I22">
-        <v>0.7222453785596309</v>
+        <v>0.5846543025991513</v>
       </c>
       <c r="J22">
-        <v>-0.3978929871876867</v>
+        <v>1.592778018715411</v>
       </c>
       <c r="K22">
-        <v>1.818769300392457</v>
+        <v>-2.030234130149802</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1185,34 +1320,34 @@
         <v>31</v>
       </c>
       <c r="B23">
-        <v>-0.0411574570261935</v>
+        <v>-0.2672264875150854</v>
       </c>
       <c r="C23">
-        <v>-0.6196320408848983</v>
+        <v>0.6742776619777973</v>
       </c>
       <c r="D23">
-        <v>-0.4817670185010929</v>
+        <v>-0.4472833318113997</v>
       </c>
       <c r="E23">
-        <v>0.2802806761101042</v>
+        <v>1.783566999271859</v>
       </c>
       <c r="F23">
-        <v>0.1075973650542067</v>
+        <v>7.513849188289668</v>
       </c>
       <c r="G23">
-        <v>-0.1897256205557853</v>
+        <v>-4.379275238411224</v>
       </c>
       <c r="H23">
-        <v>0.7081629777537968</v>
+        <v>0.5528164771854336</v>
       </c>
       <c r="I23">
-        <v>-0.4175472274164846</v>
+        <v>1.556029015863666</v>
       </c>
       <c r="J23">
-        <v>1.802574501419392</v>
+        <v>-2.063849124089159</v>
       </c>
       <c r="K23">
-        <v>7.532660084419956</v>
+        <v>-1.744615694249242</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1220,34 +1355,34 @@
         <v>32</v>
       </c>
       <c r="B24">
-        <v>-0.6322123074925011</v>
+        <v>0.6086405051256832</v>
       </c>
       <c r="C24">
-        <v>-0.4742381362309798</v>
+        <v>-0.3644232557353271</v>
       </c>
       <c r="D24">
-        <v>0.2721415675329692</v>
+        <v>1.781188140455046</v>
       </c>
       <c r="E24">
-        <v>0.106451857864849</v>
+        <v>7.550279024990743</v>
       </c>
       <c r="F24">
-        <v>-0.1955958842297873</v>
+        <v>-4.364742980045667</v>
       </c>
       <c r="G24">
-        <v>0.7046241218273783</v>
+        <v>0.5774991241904746</v>
       </c>
       <c r="H24">
-        <v>-0.4225415964970449</v>
+        <v>1.575067216788767</v>
       </c>
       <c r="I24">
-        <v>1.798340658913301</v>
+        <v>-2.04215268226752</v>
       </c>
       <c r="J24">
-        <v>7.527972027331272</v>
+        <v>-1.724379445304747</v>
       </c>
       <c r="K24">
-        <v>-4.431678617919062</v>
+        <v>0.8571285904013629</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1255,34 +1390,34 @@
         <v>33</v>
       </c>
       <c r="B25">
-        <v>-0.5544345664476722</v>
+        <v>-0.3948898833243785</v>
       </c>
       <c r="C25">
-        <v>0.4223997105967412</v>
+        <v>1.628481131420173</v>
       </c>
       <c r="D25">
-        <v>0.06519917072402209</v>
+        <v>7.529214656055699</v>
       </c>
       <c r="E25">
-        <v>-0.1579346443787821</v>
+        <v>-4.417393393403793</v>
       </c>
       <c r="F25">
-        <v>0.6883297515268441</v>
+        <v>0.5549235348850442</v>
       </c>
       <c r="G25">
-        <v>-0.4134903260564207</v>
+        <v>1.544487103311906</v>
       </c>
       <c r="H25">
-        <v>1.791734611061779</v>
+        <v>-2.065842574713278</v>
       </c>
       <c r="I25">
-        <v>7.529266551606639</v>
+        <v>-1.750067707842675</v>
       </c>
       <c r="J25">
-        <v>-4.435008288012059</v>
+        <v>0.8330224288541155</v>
       </c>
       <c r="K25">
-        <v>1.186887124338316</v>
+        <v>-1.492742449122803</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1290,34 +1425,34 @@
         <v>34</v>
       </c>
       <c r="B26">
-        <v>0.3026622004506922</v>
+        <v>1.648811223744012</v>
       </c>
       <c r="C26">
-        <v>0.2048262499793671</v>
+        <v>7.622581430282057</v>
       </c>
       <c r="D26">
-        <v>-0.2046733599345767</v>
+        <v>-4.39185494626253</v>
       </c>
       <c r="E26">
-        <v>0.7259246849823544</v>
+        <v>0.5915173482346796</v>
       </c>
       <c r="F26">
-        <v>-0.4292579831143313</v>
+        <v>1.569371227629475</v>
       </c>
       <c r="G26">
-        <v>1.802332902229133</v>
+        <v>-2.039684916748001</v>
       </c>
       <c r="H26">
-        <v>7.524261510995123</v>
+        <v>-1.725772450408734</v>
       </c>
       <c r="I26">
-        <v>-4.431927832486674</v>
+        <v>0.8573295370653448</v>
       </c>
       <c r="J26">
-        <v>1.185350211045997</v>
+        <v>-1.46868528262261</v>
       </c>
       <c r="K26">
-        <v>2.338856997192293</v>
+        <v>-0.4129619237297894</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1325,34 +1460,34 @@
         <v>35</v>
       </c>
       <c r="B27">
-        <v>0.2773214709040386</v>
+        <v>7.430105491556078</v>
       </c>
       <c r="C27">
-        <v>-0.2682241111637491</v>
+        <v>-4.804399299783788</v>
       </c>
       <c r="D27">
-        <v>0.7792998334868486</v>
+        <v>0.4790604121298505</v>
       </c>
       <c r="E27">
-        <v>-0.4306235619234042</v>
+        <v>1.418682353025873</v>
       </c>
       <c r="F27">
-        <v>1.839468075212102</v>
+        <v>-2.128355047819658</v>
       </c>
       <c r="G27">
-        <v>7.541092445529947</v>
+        <v>-1.820804677822804</v>
       </c>
       <c r="H27">
-        <v>-4.402073892816267</v>
+        <v>0.7751543734256706</v>
       </c>
       <c r="I27">
-        <v>1.207941399860122</v>
+        <v>-1.551847621592696</v>
       </c>
       <c r="J27">
-        <v>2.365903346848601</v>
+        <v>-0.4934503117984022</v>
       </c>
       <c r="K27">
-        <v>-1.77314146572578</v>
+        <v>-0.275513610932578</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1360,34 +1495,34 @@
         <v>36</v>
       </c>
       <c r="B28">
-        <v>-0.2672264875150854</v>
+        <v>-8.951727421306318</v>
       </c>
       <c r="C28">
-        <v>0.6742776619777973</v>
+        <v>-3.240964595099326</v>
       </c>
       <c r="D28">
-        <v>-0.4472833318113997</v>
+        <v>-1.373514706630456</v>
       </c>
       <c r="E28">
-        <v>1.783566999271859</v>
+        <v>-4.397355256849238</v>
       </c>
       <c r="F28">
-        <v>7.513849188289668</v>
+        <v>-3.619713032289326</v>
       </c>
       <c r="G28">
-        <v>-4.443343164774617</v>
+        <v>-0.6960666684218184</v>
       </c>
       <c r="H28">
-        <v>1.176103574446404</v>
+        <v>-2.762904832993337</v>
       </c>
       <c r="I28">
-        <v>2.329154343996856</v>
+        <v>-1.513651065911071</v>
       </c>
       <c r="J28">
-        <v>-1.806756459665137</v>
+        <v>-1.149486620479212</v>
       </c>
       <c r="K28">
-        <v>-0.8120292135765733</v>
+        <v>0.05092184080034523</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1395,34 +1530,34 @@
         <v>37</v>
       </c>
       <c r="B29">
-        <v>0.6086405051256832</v>
+        <v>-0.4824776876932789</v>
       </c>
       <c r="C29">
-        <v>-0.3644232557353271</v>
+        <v>1.599139081931884</v>
       </c>
       <c r="D29">
-        <v>1.781188140455046</v>
+        <v>-2.176964645512088</v>
       </c>
       <c r="E29">
-        <v>7.550279024990743</v>
+        <v>-1.840977140162832</v>
       </c>
       <c r="F29">
-        <v>-4.42881090640906</v>
+        <v>0.7388118808618853</v>
       </c>
       <c r="G29">
-        <v>1.200786221451445</v>
+        <v>-1.58621144197159</v>
       </c>
       <c r="H29">
-        <v>2.348192544921957</v>
+        <v>-0.5309159314665018</v>
       </c>
       <c r="I29">
-        <v>-1.785060017843498</v>
+        <v>-0.3126334443148695</v>
       </c>
       <c r="J29">
-        <v>-0.7917929646320776</v>
+        <v>0.7781004828193047</v>
       </c>
       <c r="K29">
-        <v>0.7790884278373404</v>
+        <v>1.194823674284569</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1430,34 +1565,34 @@
         <v>38</v>
       </c>
       <c r="B30">
-        <v>-0.3948898833243785</v>
+        <v>1.224587888766054</v>
       </c>
       <c r="C30">
-        <v>1.628481131420173</v>
+        <v>-2.056444242200622</v>
       </c>
       <c r="D30">
-        <v>7.529214656055699</v>
+        <v>-1.828588292556533</v>
       </c>
       <c r="E30">
-        <v>-4.481461319767186</v>
+        <v>0.7459962015599261</v>
       </c>
       <c r="F30">
-        <v>1.178210632146015</v>
+        <v>-1.570538489117364</v>
       </c>
       <c r="G30">
-        <v>2.317612431445096</v>
+        <v>-0.516632096391023</v>
       </c>
       <c r="H30">
-        <v>-1.808749910289256</v>
+        <v>-0.2986983468163306</v>
       </c>
       <c r="I30">
-        <v>-0.8174812271700064</v>
+        <v>0.7922168876341849</v>
       </c>
       <c r="J30">
-        <v>0.7549822662900931</v>
+        <v>1.208927932326396</v>
       </c>
       <c r="K30">
-        <v>-0.6576713102639671</v>
+        <v>-0.375866296109733</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1465,34 +1600,34 @@
         <v>39</v>
       </c>
       <c r="B31">
-        <v>1.648811223744012</v>
+        <v>-1.649879923112767</v>
       </c>
       <c r="C31">
-        <v>7.622581430282057</v>
+        <v>-1.741771509043598</v>
       </c>
       <c r="D31">
-        <v>-4.455922872625923</v>
+        <v>0.6741899500733747</v>
       </c>
       <c r="E31">
-        <v>1.21480444549565</v>
+        <v>-1.543777991623425</v>
       </c>
       <c r="F31">
-        <v>2.342496555762665</v>
+        <v>-0.4957364454691704</v>
       </c>
       <c r="G31">
-        <v>-1.782592252323979</v>
+        <v>-0.2907775822781197</v>
       </c>
       <c r="H31">
-        <v>-0.7931859697360647</v>
+        <v>0.8048567478956986</v>
       </c>
       <c r="I31">
-        <v>0.7792893745013223</v>
+        <v>1.222081951210451</v>
       </c>
       <c r="J31">
-        <v>-0.6336141437637736</v>
+        <v>-0.3635527127612387</v>
       </c>
       <c r="K31">
-        <v>-0.3322918422828926</v>
+        <v>0.583839642026882</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1500,34 +1635,34 @@
         <v>40</v>
       </c>
       <c r="B32">
-        <v>7.430105491556078</v>
+        <v>-2.249670444931811</v>
       </c>
       <c r="C32">
-        <v>-4.868467226147181</v>
+        <v>0.6320633131603571</v>
       </c>
       <c r="D32">
-        <v>1.102347509390821</v>
+        <v>-1.350593266819788</v>
       </c>
       <c r="E32">
-        <v>2.191807681159063</v>
+        <v>-0.4683915811657578</v>
       </c>
       <c r="F32">
-        <v>-1.871262383395635</v>
+        <v>-0.248888267974934</v>
       </c>
       <c r="G32">
-        <v>-0.8882181971501348</v>
+        <v>0.8716176203667728</v>
       </c>
       <c r="H32">
-        <v>0.6971142108616482</v>
+        <v>1.277643478744205</v>
       </c>
       <c r="I32">
-        <v>-0.7167764827338602</v>
+        <v>-0.3085675236799043</v>
       </c>
       <c r="J32">
-        <v>-0.4127802303515054</v>
+        <v>0.6410202603145777</v>
       </c>
       <c r="K32">
-        <v>0.162565936662602</v>
+        <v>0.5607407784345422</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1535,34 +1670,34 @@
         <v>41</v>
       </c>
       <c r="B33">
-        <v>-5.256957276630608</v>
+        <v>-0.1259214769749655</v>
       </c>
       <c r="C33">
-        <v>1.048364939547477</v>
+        <v>-1.475618685980302</v>
       </c>
       <c r="D33">
-        <v>2.268819703943865</v>
+        <v>-0.2170938384811635</v>
       </c>
       <c r="E33">
-        <v>-1.911643813664116</v>
+        <v>-0.2416929448297526</v>
       </c>
       <c r="F33">
-        <v>-0.9098913711904726</v>
+        <v>0.8856674530228952</v>
       </c>
       <c r="G33">
-        <v>0.6606178177170134</v>
+        <v>1.336194812205091</v>
       </c>
       <c r="H33">
-        <v>-0.7515980805230237</v>
+        <v>-0.2657147537689935</v>
       </c>
       <c r="I33">
-        <v>-0.4506673924027912</v>
+        <v>0.6804779037697479</v>
       </c>
       <c r="J33">
-        <v>0.1250312931770411</v>
+        <v>0.6042710092048686</v>
       </c>
       <c r="K33">
-        <v>1.200768223272738</v>
+        <v>0.3148496909019965</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1570,34 +1705,34 @@
         <v>42</v>
       </c>
       <c r="B34">
-        <v>1.275862526799136</v>
+        <v>-1.456316997758197</v>
       </c>
       <c r="C34">
-        <v>2.211974335587617</v>
+        <v>-0.2221655067966005</v>
       </c>
       <c r="D34">
-        <v>-1.8928994490293</v>
+        <v>-0.2298847203035863</v>
       </c>
       <c r="E34">
-        <v>-0.9022313170316942</v>
+        <v>0.8954573244745014</v>
       </c>
       <c r="F34">
-        <v>0.6684251341055339</v>
+        <v>1.345928955629549</v>
       </c>
       <c r="G34">
-        <v>-0.7434557627407905</v>
+        <v>-0.2560777933532004</v>
       </c>
       <c r="H34">
-        <v>-0.4425967002352259</v>
+        <v>0.6898230454056837</v>
       </c>
       <c r="I34">
-        <v>0.1331031329478876</v>
+        <v>0.6139218688180343</v>
       </c>
       <c r="J34">
-        <v>1.208842879016422</v>
+        <v>0.3244650893419825</v>
       </c>
       <c r="K34">
-        <v>0.7670387248225337</v>
+        <v>0.3144596800720633</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1605,31 +1740,34 @@
         <v>43</v>
       </c>
       <c r="B35">
-        <v>2.852015435238776</v>
+        <v>-0.6814298979208291</v>
       </c>
       <c r="C35">
-        <v>-1.673195736770573</v>
+        <v>-0.3328666912667296</v>
       </c>
       <c r="D35">
-        <v>-1.053795608376349</v>
+        <v>1.020216564564436</v>
       </c>
       <c r="E35">
-        <v>0.669929411774297</v>
+        <v>1.335622890042328</v>
       </c>
       <c r="F35">
-        <v>-0.7169981914922987</v>
+        <v>-0.2643000581021264</v>
       </c>
       <c r="G35">
-        <v>-0.4472776510865194</v>
+        <v>0.705045326079295</v>
       </c>
       <c r="H35">
-        <v>0.1317656092993103</v>
+        <v>0.6213407849888899</v>
       </c>
       <c r="I35">
-        <v>1.211817477156779</v>
+        <v>0.3301586542973803</v>
       </c>
       <c r="J35">
-        <v>0.7684350853490616</v>
+        <v>0.3221046561371852</v>
+      </c>
+      <c r="K35">
+        <v>-0.697211019090521</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1637,28 +1775,34 @@
         <v>44</v>
       </c>
       <c r="B36">
-        <v>-2.192164952279692</v>
+        <v>-0.5026722255049707</v>
       </c>
       <c r="C36">
-        <v>-1.034560607635104</v>
+        <v>0.9306463614384912</v>
       </c>
       <c r="D36">
-        <v>0.8737370636681667</v>
+        <v>1.366285470889476</v>
       </c>
       <c r="E36">
-        <v>-0.686181405625725</v>
+        <v>-0.2835604934770959</v>
       </c>
       <c r="F36">
-        <v>-0.3943067916549469</v>
+        <v>0.6804660345951945</v>
       </c>
       <c r="G36">
-        <v>0.2112466205167118</v>
+        <v>0.606832781780235</v>
       </c>
       <c r="H36">
-        <v>1.278127371921333</v>
+        <v>0.3135118745842211</v>
       </c>
       <c r="I36">
-        <v>0.8340494596826531</v>
+        <v>0.3043967211331541</v>
+      </c>
+      <c r="J36">
+        <v>-0.7142363390923157</v>
+      </c>
+      <c r="K36">
+        <v>-0.6927154267442934</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1666,25 +1810,34 @@
         <v>45</v>
       </c>
       <c r="B37">
-        <v>-1.459145817986049</v>
+        <v>0.695268442486379</v>
       </c>
       <c r="C37">
-        <v>0.8282260927751652</v>
+        <v>1.341678812480128</v>
       </c>
       <c r="D37">
-        <v>-0.55038671731558</v>
+        <v>-0.2408120245028667</v>
       </c>
       <c r="E37">
-        <v>-0.3938987785981063</v>
+        <v>0.662677011776885</v>
       </c>
       <c r="F37">
-        <v>0.2235492036372886</v>
+        <v>0.5962167627018904</v>
       </c>
       <c r="G37">
-        <v>1.312272642059573</v>
+        <v>0.3117261734516353</v>
       </c>
       <c r="H37">
-        <v>0.8583957275022522</v>
+        <v>0.2984398913470776</v>
+      </c>
+      <c r="I37">
+        <v>-0.7204764473137611</v>
+      </c>
+      <c r="J37">
+        <v>-0.6980947118431513</v>
+      </c>
+      <c r="K37">
+        <v>0.8406195607711028</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1692,22 +1845,34 @@
         <v>46</v>
       </c>
       <c r="B38">
-        <v>0.7106206067286608</v>
+        <v>1.533847576318271</v>
       </c>
       <c r="C38">
-        <v>-0.4235674217597265</v>
+        <v>-0.1936259769839437</v>
       </c>
       <c r="D38">
-        <v>-0.3445833959592033</v>
+        <v>0.583108652925594</v>
       </c>
       <c r="E38">
-        <v>0.2429897541944965</v>
+        <v>0.5852151936452853</v>
       </c>
       <c r="F38">
-        <v>1.358596452321083</v>
+        <v>0.3035951384809393</v>
       </c>
       <c r="G38">
-        <v>0.9025746824242253</v>
+        <v>0.2760442649778436</v>
+      </c>
+      <c r="H38">
+        <v>-0.7388925974841081</v>
+      </c>
+      <c r="I38">
+        <v>-0.7150001535555365</v>
+      </c>
+      <c r="J38">
+        <v>0.8224589278409099</v>
+      </c>
+      <c r="K38">
+        <v>-0.1294633805524922</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1715,19 +1880,31 @@
         <v>47</v>
       </c>
       <c r="B39">
-        <v>-0.6433782786673296</v>
+        <v>0.2988169550551557</v>
       </c>
       <c r="C39">
-        <v>-0.4386220071439803</v>
+        <v>0.6695032207238313</v>
       </c>
       <c r="D39">
-        <v>0.2920475411410074</v>
+        <v>0.413169930687634</v>
       </c>
       <c r="E39">
-        <v>1.339553325285935</v>
+        <v>0.2858903600785752</v>
       </c>
       <c r="F39">
-        <v>0.8760136350783703</v>
+        <v>0.2603689453763344</v>
+      </c>
+      <c r="G39">
+        <v>-0.7842151956877904</v>
+      </c>
+      <c r="H39">
+        <v>-0.7517550993415597</v>
+      </c>
+      <c r="I39">
+        <v>0.7886969707147926</v>
+      </c>
+      <c r="J39">
+        <v>-0.165741845517162</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1735,16 +1912,28 @@
         <v>48</v>
       </c>
       <c r="B40">
-        <v>-0.6617613611487303</v>
+        <v>0.7325543163948336</v>
       </c>
       <c r="C40">
-        <v>0.3079406629742235</v>
+        <v>0.4229506677669676</v>
       </c>
       <c r="D40">
-        <v>1.373482183475678</v>
+        <v>0.2454962336276151</v>
       </c>
       <c r="E40">
-        <v>0.8687432988149191</v>
+        <v>0.2441103205764524</v>
+      </c>
+      <c r="F40">
+        <v>-0.7983350006221057</v>
+      </c>
+      <c r="G40">
+        <v>-0.7708676270699714</v>
+      </c>
+      <c r="H40">
+        <v>0.7706321548531918</v>
+      </c>
+      <c r="I40">
+        <v>-0.1832014377874837</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1752,13 +1941,25 @@
         <v>49</v>
       </c>
       <c r="B41">
-        <v>0.2486411258766588</v>
+        <v>0.6205859453382192</v>
       </c>
       <c r="C41">
-        <v>1.363875930632925</v>
+        <v>0.2998947699497946</v>
       </c>
       <c r="D41">
-        <v>0.864934599283038</v>
+        <v>0.1714200530674933</v>
+      </c>
+      <c r="E41">
+        <v>-0.8043240939096088</v>
+      </c>
+      <c r="F41">
+        <v>-0.7743864887232023</v>
+      </c>
+      <c r="G41">
+        <v>0.7539745674340489</v>
+      </c>
+      <c r="H41">
+        <v>-0.1961654531415352</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1766,10 +1967,22 @@
         <v>50</v>
       </c>
       <c r="B42">
-        <v>1.673465451316615</v>
+        <v>0.4819063909728227</v>
       </c>
       <c r="C42">
-        <v>1.002127097876739</v>
+        <v>0.2168522670283788</v>
+      </c>
+      <c r="D42">
+        <v>-0.8642139633931005</v>
+      </c>
+      <c r="E42">
+        <v>-0.7761405111915634</v>
+      </c>
+      <c r="F42">
+        <v>0.753463083855529</v>
+      </c>
+      <c r="G42">
+        <v>-0.2077890329460543</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1777,57 +1990,74 @@
         <v>51</v>
       </c>
       <c r="B43">
-        <v>1.249341387174681</v>
+        <v>0.4586307429802475</v>
+      </c>
+      <c r="C43">
+        <v>-0.8546617279907039</v>
+      </c>
+      <c r="D43">
+        <v>-0.8262811245050392</v>
+      </c>
+      <c r="E43">
+        <v>0.7632630423627871</v>
+      </c>
+      <c r="F43">
+        <v>-0.2054539185520808</v>
       </c>
     </row>
     <row r="44" spans="1:11">
       <c r="A44" s="1" t="s">
         <v>52</v>
       </c>
+      <c r="B44">
+        <v>-0.7081246783130091</v>
+      </c>
+      <c r="C44">
+        <v>-0.7766873914013612</v>
+      </c>
+      <c r="D44">
+        <v>0.7351734699582756</v>
+      </c>
+      <c r="E44">
+        <v>-0.1922981331890715</v>
+      </c>
     </row>
     <row r="45" spans="1:11">
       <c r="A45" s="1" t="s">
         <v>53</v>
       </c>
+      <c r="B45">
+        <v>-0.9804124188973848</v>
+      </c>
+      <c r="C45">
+        <v>0.7061650899858334</v>
+      </c>
+      <c r="D45">
+        <v>-0.1048233766940621</v>
+      </c>
     </row>
     <row r="46" spans="1:11">
       <c r="A46" s="1" t="s">
         <v>54</v>
       </c>
+      <c r="B46">
+        <v>0.3851484876896414</v>
+      </c>
+      <c r="C46">
+        <v>-0.1636275381640872</v>
+      </c>
     </row>
     <row r="47" spans="1:11">
       <c r="A47" s="1" t="s">
         <v>55</v>
       </c>
+      <c r="B47">
+        <v>-0.01814927404267447</v>
+      </c>
     </row>
     <row r="48" spans="1:11">
       <c r="A48" s="1" t="s">
         <v>56</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1">
-      <c r="A49" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1">
-      <c r="A50" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1">
-      <c r="A51" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1">
-      <c r="A52" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1">
-      <c r="A53" s="1" t="s">
-        <v>61</v>
       </c>
     </row>
   </sheetData>

--- a/3_Component_Results/DOMUSE/Data/naive_err/AR2_50_9_qoq_errors_first_eval.xlsx
+++ b/3_Component_Results/DOMUSE/Data/naive_err/AR2_50_9_qoq_errors_first_eval.xlsx
@@ -605,15 +605,6 @@
       <c r="H2">
         <v>-0.1524194508597342</v>
       </c>
-      <c r="I2">
-        <v>0.5892983349069034</v>
-      </c>
-      <c r="J2">
-        <v>0.5410791075487134</v>
-      </c>
-      <c r="K2">
-        <v>0.2469615835596112</v>
-      </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
@@ -634,21 +625,6 @@
       <c r="F3">
         <v>0.1037808198054395</v>
       </c>
-      <c r="G3">
-        <v>0.5999655385994425</v>
-      </c>
-      <c r="H3">
-        <v>0.724112664506922</v>
-      </c>
-      <c r="I3">
-        <v>0.3076557451057896</v>
-      </c>
-      <c r="J3">
-        <v>0.3331284835103464</v>
-      </c>
-      <c r="K3">
-        <v>0.3012303191900245</v>
-      </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
@@ -675,15 +651,6 @@
       <c r="H4">
         <v>0.3044483231023983</v>
       </c>
-      <c r="I4">
-        <v>0.2825089781401424</v>
-      </c>
-      <c r="J4">
-        <v>-0.0973857149104142</v>
-      </c>
-      <c r="K4">
-        <v>-0.4061154638499449</v>
-      </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
@@ -704,21 +671,6 @@
       <c r="F5">
         <v>0.3063033874885817</v>
       </c>
-      <c r="G5">
-        <v>0.2942571669794643</v>
-      </c>
-      <c r="H5">
-        <v>-0.0931641912349494</v>
-      </c>
-      <c r="I5">
-        <v>-0.3966786672555065</v>
-      </c>
-      <c r="J5">
-        <v>0.6137917488812377</v>
-      </c>
-      <c r="K5">
-        <v>-1.55398144811108</v>
-      </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
@@ -745,15 +697,6 @@
       <c r="H6">
         <v>0.6091242210487386</v>
       </c>
-      <c r="I6">
-        <v>-1.585289023135289</v>
-      </c>
-      <c r="J6">
-        <v>0.4557940629208951</v>
-      </c>
-      <c r="K6">
-        <v>0.4460097931269203</v>
-      </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
@@ -774,21 +717,6 @@
       <c r="F7">
         <v>0.5575615649551221</v>
       </c>
-      <c r="G7">
-        <v>-1.605488280710164</v>
-      </c>
-      <c r="H7">
-        <v>0.4185686116426709</v>
-      </c>
-      <c r="I7">
-        <v>0.4210803793827069</v>
-      </c>
-      <c r="J7">
-        <v>-0.8032415029445406</v>
-      </c>
-      <c r="K7">
-        <v>-0.2573748024414758</v>
-      </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="1" t="s">
@@ -815,15 +743,6 @@
       <c r="H8">
         <v>-0.8167612454749933</v>
       </c>
-      <c r="I8">
-        <v>-0.2737209468961671</v>
-      </c>
-      <c r="J8">
-        <v>0.4522297872112956</v>
-      </c>
-      <c r="K8">
-        <v>-0.49062832164035</v>
-      </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="1" t="s">
@@ -844,21 +763,6 @@
       <c r="F9">
         <v>-0.7812097065401281</v>
       </c>
-      <c r="G9">
-        <v>-0.2140188449768187</v>
-      </c>
-      <c r="H9">
-        <v>0.4939837660135075</v>
-      </c>
-      <c r="I9">
-        <v>-0.4398144183660089</v>
-      </c>
-      <c r="J9">
-        <v>-0.5732498698339226</v>
-      </c>
-      <c r="K9">
-        <v>-0.5255200426117579</v>
-      </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="1" t="s">
@@ -885,15 +789,6 @@
       <c r="H10">
         <v>-0.5867795836918103</v>
       </c>
-      <c r="I10">
-        <v>-0.4666029924297193</v>
-      </c>
-      <c r="J10">
-        <v>0.4288730018125405</v>
-      </c>
-      <c r="K10">
-        <v>-0.1606097620349077</v>
-      </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="1" t="s">
@@ -914,21 +809,6 @@
       <c r="F11">
         <v>-0.6030493650709703</v>
       </c>
-      <c r="G11">
-        <v>-0.5684950311133089</v>
-      </c>
-      <c r="H11">
-        <v>0.3862892789456705</v>
-      </c>
-      <c r="I11">
-        <v>-0.238319052841212</v>
-      </c>
-      <c r="J11">
-        <v>-0.4163595244981116</v>
-      </c>
-      <c r="K11">
-        <v>0.0805329408679176</v>
-      </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="1" t="s">
@@ -955,15 +835,6 @@
       <c r="H12">
         <v>-0.3823142582379787</v>
       </c>
-      <c r="I12">
-        <v>0.1141332747280269</v>
-      </c>
-      <c r="J12">
-        <v>-0.8852847537018906</v>
-      </c>
-      <c r="K12">
-        <v>-0.152826881537631</v>
-      </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="1" t="s">
@@ -996,9 +867,6 @@
       <c r="J13">
         <v>0.1348417040676331</v>
       </c>
-      <c r="K13">
-        <v>-0.1120512842982363</v>
-      </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="1" t="s">
@@ -1025,15 +893,6 @@
       <c r="H14">
         <v>0.1664338649438454</v>
       </c>
-      <c r="I14">
-        <v>-0.08049589489028602</v>
-      </c>
-      <c r="J14">
-        <v>-0.5730541687050947</v>
-      </c>
-      <c r="K14">
-        <v>-0.4958239707762366</v>
-      </c>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="1" t="s">
@@ -1066,9 +925,6 @@
       <c r="J15">
         <v>0.2842444055692547</v>
       </c>
-      <c r="K15">
-        <v>0.094314310433458</v>
-      </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="1" t="s">
@@ -1095,15 +951,6 @@
       <c r="H16">
         <v>0.2996381065732735</v>
       </c>
-      <c r="I16">
-        <v>0.1049343773025755</v>
-      </c>
-      <c r="J16">
-        <v>-0.1810904405051886</v>
-      </c>
-      <c r="K16">
-        <v>0.7100950095189205</v>
-      </c>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="1" t="s">
@@ -1136,9 +983,6 @@
       <c r="J17">
         <v>-0.3978929871876867</v>
       </c>
-      <c r="K17">
-        <v>1.818769300392457</v>
-      </c>
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="1" t="s">
@@ -1168,12 +1012,6 @@
       <c r="I18">
         <v>-0.4175472274164846</v>
       </c>
-      <c r="J18">
-        <v>1.802574501419392</v>
-      </c>
-      <c r="K18">
-        <v>7.532660084419956</v>
-      </c>
     </row>
     <row r="19" spans="1:11">
       <c r="A19" s="1" t="s">
@@ -1200,15 +1038,6 @@
       <c r="H19">
         <v>-0.4225415964970449</v>
       </c>
-      <c r="I19">
-        <v>1.798340658913301</v>
-      </c>
-      <c r="J19">
-        <v>7.527972027331272</v>
-      </c>
-      <c r="K19">
-        <v>-4.36761069155567</v>
-      </c>
     </row>
     <row r="20" spans="1:11">
       <c r="A20" s="1" t="s">
@@ -1276,9 +1105,6 @@
       <c r="J21">
         <v>0.5620631137850272</v>
       </c>
-      <c r="K21">
-        <v>1.565731669059103</v>
-      </c>
     </row>
     <row r="22" spans="1:11">
       <c r="A22" s="1" t="s">
@@ -1308,12 +1134,6 @@
       <c r="I22">
         <v>0.5846543025991513</v>
       </c>
-      <c r="J22">
-        <v>1.592778018715411</v>
-      </c>
-      <c r="K22">
-        <v>-2.030234130149802</v>
-      </c>
     </row>
     <row r="23" spans="1:11">
       <c r="A23" s="1" t="s">
@@ -1340,15 +1160,6 @@
       <c r="H23">
         <v>0.5528164771854336</v>
       </c>
-      <c r="I23">
-        <v>1.556029015863666</v>
-      </c>
-      <c r="J23">
-        <v>-2.063849124089159</v>
-      </c>
-      <c r="K23">
-        <v>-1.744615694249242</v>
-      </c>
     </row>
     <row r="24" spans="1:11">
       <c r="A24" s="1" t="s">
@@ -1416,9 +1227,6 @@
       <c r="J25">
         <v>0.8330224288541155</v>
       </c>
-      <c r="K25">
-        <v>-1.492742449122803</v>
-      </c>
     </row>
     <row r="26" spans="1:11">
       <c r="A26" s="1" t="s">
@@ -1448,12 +1256,6 @@
       <c r="I26">
         <v>0.8573295370653448</v>
       </c>
-      <c r="J26">
-        <v>-1.46868528262261</v>
-      </c>
-      <c r="K26">
-        <v>-0.4129619237297894</v>
-      </c>
     </row>
     <row r="27" spans="1:11">
       <c r="A27" s="1" t="s">
@@ -1480,15 +1282,6 @@
       <c r="H27">
         <v>0.7751543734256706</v>
       </c>
-      <c r="I27">
-        <v>-1.551847621592696</v>
-      </c>
-      <c r="J27">
-        <v>-0.4934503117984022</v>
-      </c>
-      <c r="K27">
-        <v>-0.275513610932578</v>
-      </c>
     </row>
     <row r="28" spans="1:11">
       <c r="A28" s="1" t="s">
@@ -1556,9 +1349,6 @@
       <c r="J29">
         <v>0.7781004828193047</v>
       </c>
-      <c r="K29">
-        <v>1.194823674284569</v>
-      </c>
     </row>
     <row r="30" spans="1:11">
       <c r="A30" s="1" t="s">
@@ -1588,12 +1378,6 @@
       <c r="I30">
         <v>0.7922168876341849</v>
       </c>
-      <c r="J30">
-        <v>1.208927932326396</v>
-      </c>
-      <c r="K30">
-        <v>-0.375866296109733</v>
-      </c>
     </row>
     <row r="31" spans="1:11">
       <c r="A31" s="1" t="s">
@@ -1620,15 +1404,6 @@
       <c r="H31">
         <v>0.8048567478956986</v>
       </c>
-      <c r="I31">
-        <v>1.222081951210451</v>
-      </c>
-      <c r="J31">
-        <v>-0.3635527127612387</v>
-      </c>
-      <c r="K31">
-        <v>0.583839642026882</v>
-      </c>
     </row>
     <row r="32" spans="1:11">
       <c r="A32" s="1" t="s">
@@ -1696,9 +1471,6 @@
       <c r="J33">
         <v>0.6042710092048686</v>
       </c>
-      <c r="K33">
-        <v>0.3148496909019965</v>
-      </c>
     </row>
     <row r="34" spans="1:11">
       <c r="A34" s="1" t="s">
@@ -1728,12 +1500,6 @@
       <c r="I34">
         <v>0.6139218688180343</v>
       </c>
-      <c r="J34">
-        <v>0.3244650893419825</v>
-      </c>
-      <c r="K34">
-        <v>0.3144596800720633</v>
-      </c>
     </row>
     <row r="35" spans="1:11">
       <c r="A35" s="1" t="s">
@@ -1760,15 +1526,6 @@
       <c r="H35">
         <v>0.6213407849888899</v>
       </c>
-      <c r="I35">
-        <v>0.3301586542973803</v>
-      </c>
-      <c r="J35">
-        <v>0.3221046561371852</v>
-      </c>
-      <c r="K35">
-        <v>-0.697211019090521</v>
-      </c>
     </row>
     <row r="36" spans="1:11">
       <c r="A36" s="1" t="s">
@@ -1836,9 +1593,6 @@
       <c r="J37">
         <v>-0.6980947118431513</v>
       </c>
-      <c r="K37">
-        <v>0.8406195607711028</v>
-      </c>
     </row>
     <row r="38" spans="1:11">
       <c r="A38" s="1" t="s">
@@ -1868,12 +1622,6 @@
       <c r="I38">
         <v>-0.7150001535555365</v>
       </c>
-      <c r="J38">
-        <v>0.8224589278409099</v>
-      </c>
-      <c r="K38">
-        <v>-0.1294633805524922</v>
-      </c>
     </row>
     <row r="39" spans="1:11">
       <c r="A39" s="1" t="s">
@@ -1899,12 +1647,6 @@
       </c>
       <c r="H39">
         <v>-0.7517550993415597</v>
-      </c>
-      <c r="I39">
-        <v>0.7886969707147926</v>
-      </c>
-      <c r="J39">
-        <v>-0.165741845517162</v>
       </c>
     </row>
     <row r="40" spans="1:11">
